--- a/doc/detail_design/db/MCS_Database_Design.xlsx
+++ b/doc/detail_design/db/MCS_Database_Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13880" tabRatio="818" activeTab="4"/>
+    <workbookView xWindow="4260" yWindow="-19460" windowWidth="29020" windowHeight="16540" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -3743,6 +3743,9 @@
     <xf numFmtId="22" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3753,26 +3756,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3780,12 +3783,6 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3822,37 +3819,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3885,6 +3870,30 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3897,12 +3906,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3919,9 +3922,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4377,19 +4377,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>345440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95557</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513368</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="PHP Training.png"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="MCS_ERD(2).png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4408,8 +4408,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="416560"/>
-          <a:ext cx="9875520" cy="3814117"/>
+          <a:off x="345440" y="294640"/>
+          <a:ext cx="9220488" cy="4257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5655,29 +5655,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="195"/>
-      <c r="P13" s="195"/>
-      <c r="Q13" s="195"/>
-      <c r="R13" s="195"/>
-      <c r="S13" s="195"/>
-      <c r="T13" s="195"/>
-      <c r="U13" s="195"/>
-      <c r="V13" s="195"/>
-      <c r="W13" s="195"/>
-      <c r="X13" s="195"/>
-      <c r="Y13" s="195"/>
-      <c r="Z13" s="195"/>
-      <c r="AA13" s="195"/>
-      <c r="AB13" s="195"/>
-      <c r="AC13" s="195"/>
-      <c r="AD13" s="195"/>
-      <c r="AE13" s="195"/>
-      <c r="AF13" s="195"/>
-      <c r="AG13" s="195"/>
-      <c r="AH13" s="195"/>
-      <c r="AI13" s="195"/>
-      <c r="AJ13" s="195"/>
-      <c r="AK13" s="195"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="196"/>
+      <c r="R13" s="196"/>
+      <c r="S13" s="196"/>
+      <c r="T13" s="196"/>
+      <c r="U13" s="196"/>
+      <c r="V13" s="196"/>
+      <c r="W13" s="196"/>
+      <c r="X13" s="196"/>
+      <c r="Y13" s="196"/>
+      <c r="Z13" s="196"/>
+      <c r="AA13" s="196"/>
+      <c r="AB13" s="196"/>
+      <c r="AC13" s="196"/>
+      <c r="AD13" s="196"/>
+      <c r="AE13" s="196"/>
+      <c r="AF13" s="196"/>
+      <c r="AG13" s="196"/>
+      <c r="AH13" s="196"/>
+      <c r="AI13" s="196"/>
+      <c r="AJ13" s="196"/>
+      <c r="AK13" s="196"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5709,29 +5709,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="195"/>
-      <c r="P14" s="195"/>
-      <c r="Q14" s="195"/>
-      <c r="R14" s="195"/>
-      <c r="S14" s="195"/>
-      <c r="T14" s="195"/>
-      <c r="U14" s="195"/>
-      <c r="V14" s="195"/>
-      <c r="W14" s="195"/>
-      <c r="X14" s="195"/>
-      <c r="Y14" s="195"/>
-      <c r="Z14" s="195"/>
-      <c r="AA14" s="195"/>
-      <c r="AB14" s="195"/>
-      <c r="AC14" s="195"/>
-      <c r="AD14" s="195"/>
-      <c r="AE14" s="195"/>
-      <c r="AF14" s="195"/>
-      <c r="AG14" s="195"/>
-      <c r="AH14" s="195"/>
-      <c r="AI14" s="195"/>
-      <c r="AJ14" s="195"/>
-      <c r="AK14" s="195"/>
+      <c r="O14" s="196"/>
+      <c r="P14" s="196"/>
+      <c r="Q14" s="196"/>
+      <c r="R14" s="196"/>
+      <c r="S14" s="196"/>
+      <c r="T14" s="196"/>
+      <c r="U14" s="196"/>
+      <c r="V14" s="196"/>
+      <c r="W14" s="196"/>
+      <c r="X14" s="196"/>
+      <c r="Y14" s="196"/>
+      <c r="Z14" s="196"/>
+      <c r="AA14" s="196"/>
+      <c r="AB14" s="196"/>
+      <c r="AC14" s="196"/>
+      <c r="AD14" s="196"/>
+      <c r="AE14" s="196"/>
+      <c r="AF14" s="196"/>
+      <c r="AG14" s="196"/>
+      <c r="AH14" s="196"/>
+      <c r="AI14" s="196"/>
+      <c r="AJ14" s="196"/>
+      <c r="AK14" s="196"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5759,43 +5759,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="196" t="s">
+      <c r="K15" s="197" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="196"/>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="196"/>
-      <c r="R15" s="196"/>
-      <c r="S15" s="196"/>
-      <c r="T15" s="196"/>
-      <c r="U15" s="196"/>
-      <c r="V15" s="196"/>
-      <c r="W15" s="196"/>
-      <c r="X15" s="196"/>
-      <c r="Y15" s="196"/>
-      <c r="Z15" s="196"/>
-      <c r="AA15" s="196"/>
-      <c r="AB15" s="196"/>
-      <c r="AC15" s="196"/>
-      <c r="AD15" s="196"/>
-      <c r="AE15" s="196"/>
-      <c r="AF15" s="196"/>
-      <c r="AG15" s="196"/>
-      <c r="AH15" s="196"/>
-      <c r="AI15" s="196"/>
-      <c r="AJ15" s="196"/>
-      <c r="AK15" s="196"/>
-      <c r="AL15" s="196"/>
-      <c r="AM15" s="196"/>
-      <c r="AN15" s="196"/>
-      <c r="AO15" s="196"/>
-      <c r="AP15" s="196"/>
-      <c r="AQ15" s="196"/>
-      <c r="AR15" s="196"/>
-      <c r="AS15" s="196"/>
+      <c r="L15" s="197"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="197"/>
+      <c r="R15" s="197"/>
+      <c r="S15" s="197"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="197"/>
+      <c r="Z15" s="197"/>
+      <c r="AA15" s="197"/>
+      <c r="AB15" s="197"/>
+      <c r="AC15" s="197"/>
+      <c r="AD15" s="197"/>
+      <c r="AE15" s="197"/>
+      <c r="AF15" s="197"/>
+      <c r="AG15" s="197"/>
+      <c r="AH15" s="197"/>
+      <c r="AI15" s="197"/>
+      <c r="AJ15" s="197"/>
+      <c r="AK15" s="197"/>
+      <c r="AL15" s="197"/>
+      <c r="AM15" s="197"/>
+      <c r="AN15" s="197"/>
+      <c r="AO15" s="197"/>
+      <c r="AP15" s="197"/>
+      <c r="AQ15" s="197"/>
+      <c r="AR15" s="197"/>
+      <c r="AS15" s="197"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5815,41 +5815,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="196"/>
-      <c r="L16" s="196"/>
-      <c r="M16" s="196"/>
-      <c r="N16" s="196"/>
-      <c r="O16" s="196"/>
-      <c r="P16" s="196"/>
-      <c r="Q16" s="196"/>
-      <c r="R16" s="196"/>
-      <c r="S16" s="196"/>
-      <c r="T16" s="196"/>
-      <c r="U16" s="196"/>
-      <c r="V16" s="196"/>
-      <c r="W16" s="196"/>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="196"/>
-      <c r="Z16" s="196"/>
-      <c r="AA16" s="196"/>
-      <c r="AB16" s="196"/>
-      <c r="AC16" s="196"/>
-      <c r="AD16" s="196"/>
-      <c r="AE16" s="196"/>
-      <c r="AF16" s="196"/>
-      <c r="AG16" s="196"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AJ16" s="196"/>
-      <c r="AK16" s="196"/>
-      <c r="AL16" s="196"/>
-      <c r="AM16" s="196"/>
-      <c r="AN16" s="196"/>
-      <c r="AO16" s="196"/>
-      <c r="AP16" s="196"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
-      <c r="AS16" s="196"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="197"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="197"/>
+      <c r="AG16" s="197"/>
+      <c r="AH16" s="197"/>
+      <c r="AI16" s="197"/>
+      <c r="AJ16" s="197"/>
+      <c r="AK16" s="197"/>
+      <c r="AL16" s="197"/>
+      <c r="AM16" s="197"/>
+      <c r="AN16" s="197"/>
+      <c r="AO16" s="197"/>
+      <c r="AP16" s="197"/>
+      <c r="AQ16" s="197"/>
+      <c r="AR16" s="197"/>
+      <c r="AS16" s="197"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6438,14 +6438,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="197">
+      <c r="AN27" s="198">
         <v>41922</v>
       </c>
-      <c r="AO27" s="197"/>
-      <c r="AP27" s="197"/>
-      <c r="AQ27" s="197"/>
-      <c r="AR27" s="197"/>
-      <c r="AS27" s="197"/>
+      <c r="AO27" s="198"/>
+      <c r="AP27" s="198"/>
+      <c r="AQ27" s="198"/>
+      <c r="AR27" s="198"/>
+      <c r="AS27" s="198"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -6935,103 +6935,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="200"/>
+      <c r="D2" s="226"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="253" t="s">
+      <c r="F2" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="254"/>
+      <c r="G2" s="255"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="202"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="227"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="204" t="s">
+      <c r="F3" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="205"/>
+      <c r="G3" s="224"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="202"/>
+      <c r="D4" s="227"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="201"/>
-      <c r="G4" s="205"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="224"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="225" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="202"/>
+      <c r="D5" s="227"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="205"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="224"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="202"/>
+      <c r="D6" s="227"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="205"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="224"/>
     </row>
     <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="212"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="213"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="215"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="214"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="216"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="215"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="214"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="217"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="219"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="218"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="116"/>
@@ -7247,10 +7247,10 @@
       <c r="B21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="206" t="s">
+      <c r="C21" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="207"/>
+      <c r="D21" s="208"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -7274,10 +7274,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="220" t="s">
+      <c r="C22" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="221"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -7297,10 +7297,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="225" t="s">
+      <c r="C23" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="226"/>
+      <c r="D23" s="206"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -7318,10 +7318,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="249" t="s">
+      <c r="C24" s="250" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="250"/>
+      <c r="D24" s="251"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -7360,14 +7360,14 @@
       <c r="B27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="208" t="s">
+      <c r="C27" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="209"/>
-      <c r="E27" s="208" t="s">
+      <c r="D27" s="201"/>
+      <c r="E27" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="222"/>
+      <c r="F27" s="202"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -7404,14 +7404,14 @@
       <c r="B30" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="208" t="s">
+      <c r="C30" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="209"/>
-      <c r="E30" s="208" t="s">
+      <c r="D30" s="201"/>
+      <c r="E30" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="222"/>
+      <c r="F30" s="202"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -7427,14 +7427,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="220" t="s">
+      <c r="C31" s="219" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="221"/>
-      <c r="E31" s="225" t="s">
+      <c r="D31" s="220"/>
+      <c r="E31" s="205" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="226"/>
+      <c r="F31" s="206"/>
       <c r="G31" s="53" t="s">
         <v>79</v>
       </c>
@@ -7450,14 +7450,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="237" t="s">
+      <c r="C32" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="238"/>
-      <c r="E32" s="251" t="s">
+      <c r="D32" s="233"/>
+      <c r="E32" s="252" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="252"/>
+      <c r="F32" s="253"/>
       <c r="G32" s="55" t="s">
         <v>54</v>
       </c>
@@ -7510,6 +7510,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C31:D31"/>
@@ -7526,14 +7534,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7852,11 +7852,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
     </row>
     <row r="2" spans="1:3" ht="12" thickBot="1">
       <c r="A2" s="172" t="s">
@@ -8119,8 +8119,8 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -8131,11 +8131,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="199" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8163,7 +8163,7 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -8191,103 +8191,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="200"/>
+      <c r="D2" s="226"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="221" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="203"/>
+      <c r="G2" s="222"/>
     </row>
     <row r="3" spans="1:13" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="202"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="227"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="204" t="s">
+      <c r="F3" s="223" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="205"/>
+      <c r="G3" s="224"/>
     </row>
     <row r="4" spans="1:13" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="202"/>
+      <c r="D4" s="227"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="201"/>
-      <c r="G4" s="205"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="224"/>
     </row>
     <row r="5" spans="1:13" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="225" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="202"/>
+      <c r="D5" s="227"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="205"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="224"/>
     </row>
     <row r="6" spans="1:13" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="202"/>
+      <c r="D6" s="227"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="205"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="224"/>
     </row>
     <row r="7" spans="1:13" ht="13">
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="212"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="213"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="215"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="214"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="216"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="215"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="214"/>
     </row>
     <row r="10" spans="1:13" ht="12" thickBot="1">
-      <c r="B10" s="217"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="219"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="218"/>
     </row>
     <row r="12" spans="1:13" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8464,7 +8464,7 @@
       <c r="C18" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="255" t="s">
+      <c r="D18" s="195" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="66" t="s">
@@ -8544,7 +8544,7 @@
       <c r="C24" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="255" t="s">
+      <c r="D24" s="195" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="66" t="s">
@@ -8651,10 +8651,10 @@
       <c r="B31" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="206" t="s">
+      <c r="C31" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="207"/>
+      <c r="D31" s="208"/>
       <c r="E31" s="34" t="s">
         <v>33</v>
       </c>
@@ -8672,10 +8672,10 @@
       <c r="B32" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="220" t="s">
+      <c r="C32" s="219" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="221"/>
+      <c r="D32" s="220"/>
       <c r="E32" s="46" t="s">
         <v>3</v>
       </c>
@@ -8689,10 +8689,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="51"/>
-      <c r="C33" s="225" t="s">
+      <c r="C33" s="205" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="226"/>
+      <c r="D33" s="206"/>
       <c r="E33" s="52"/>
       <c r="F33" s="52" t="s">
         <v>3</v>
@@ -8704,8 +8704,8 @@
         <v>3</v>
       </c>
       <c r="B34" s="54"/>
-      <c r="C34" s="223"/>
-      <c r="D34" s="224"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="204"/>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
       <c r="G34" s="55"/>
@@ -8722,14 +8722,14 @@
       <c r="B37" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="208" t="s">
+      <c r="C37" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="209"/>
-      <c r="E37" s="208" t="s">
+      <c r="D37" s="201"/>
+      <c r="E37" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="222"/>
+      <c r="F37" s="202"/>
       <c r="G37" s="38" t="s">
         <v>38</v>
       </c>
@@ -8746,40 +8746,40 @@
       <c r="B40" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="208" t="s">
+      <c r="C40" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="209"/>
-      <c r="E40" s="208" t="s">
+      <c r="D40" s="201"/>
+      <c r="E40" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="222"/>
+      <c r="F40" s="202"/>
       <c r="G40" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8803,7 +8803,7 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
@@ -8839,108 +8839,108 @@
       <c r="B2" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="200"/>
+      <c r="D2" s="226"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="221" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="203"/>
+      <c r="G2" s="222"/>
     </row>
     <row r="3" spans="1:13" ht="13">
       <c r="A3" s="97"/>
       <c r="B3" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="202"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="227"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="204" t="s">
+      <c r="F3" s="223" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="205"/>
+      <c r="G3" s="224"/>
     </row>
     <row r="4" spans="1:13" ht="13">
       <c r="A4" s="97"/>
       <c r="B4" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="202"/>
+      <c r="D4" s="227"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="201"/>
-      <c r="G4" s="205"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="224"/>
     </row>
     <row r="5" spans="1:13" ht="13">
       <c r="A5" s="97"/>
       <c r="B5" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="227" t="s">
+      <c r="C5" s="238" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="228"/>
+      <c r="D5" s="239"/>
       <c r="E5" s="100"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="229"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="240"/>
     </row>
     <row r="6" spans="1:13" ht="13">
       <c r="A6" s="97"/>
       <c r="B6" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="227" t="s">
+      <c r="C6" s="238" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="228"/>
+      <c r="D6" s="239"/>
       <c r="E6" s="101"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="229"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="240"/>
     </row>
     <row r="7" spans="1:13" ht="13">
       <c r="A7" s="97"/>
-      <c r="B7" s="230" t="s">
+      <c r="B7" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="232"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="243"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="213"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="215"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="214"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="216"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="215"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="214"/>
     </row>
     <row r="10" spans="1:13" ht="12" thickBot="1">
-      <c r="B10" s="217"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="219"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="218"/>
     </row>
     <row r="12" spans="1:13" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9242,10 +9242,10 @@
       <c r="B30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="206" t="s">
+      <c r="C30" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="207"/>
+      <c r="D30" s="208"/>
       <c r="E30" s="34" t="s">
         <v>33</v>
       </c>
@@ -9263,10 +9263,10 @@
       <c r="B31" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="237" t="s">
+      <c r="C31" s="232" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="238"/>
+      <c r="D31" s="233"/>
       <c r="E31" s="58" t="s">
         <v>3</v>
       </c>
@@ -9287,14 +9287,14 @@
       <c r="B34" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="208" t="s">
+      <c r="C34" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="209"/>
-      <c r="E34" s="208" t="s">
+      <c r="D34" s="201"/>
+      <c r="E34" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="222"/>
+      <c r="F34" s="202"/>
       <c r="G34" s="38" t="s">
         <v>38</v>
       </c>
@@ -9304,10 +9304,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="149"/>
-      <c r="C35" s="239"/>
-      <c r="D35" s="240"/>
-      <c r="E35" s="241"/>
-      <c r="F35" s="242"/>
+      <c r="C35" s="234"/>
+      <c r="D35" s="235"/>
+      <c r="E35" s="236"/>
+      <c r="F35" s="237"/>
       <c r="G35" s="150"/>
     </row>
     <row r="36" spans="1:7" ht="14" thickBot="1">
@@ -9315,10 +9315,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="152"/>
-      <c r="C36" s="233"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="235"/>
-      <c r="F36" s="236"/>
+      <c r="C36" s="228"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="230"/>
+      <c r="F36" s="231"/>
       <c r="G36" s="153"/>
     </row>
     <row r="38" spans="1:7" ht="12" thickBot="1">
@@ -9333,20 +9333,31 @@
       <c r="B39" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="208" t="s">
+      <c r="C39" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="209"/>
-      <c r="E39" s="208" t="s">
+      <c r="D39" s="201"/>
+      <c r="E39" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="222"/>
+      <c r="F39" s="202"/>
       <c r="G39" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="C36:D36"/>
@@ -9358,17 +9369,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9421,103 +9421,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="200"/>
+      <c r="D2" s="226"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="221" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="203"/>
+      <c r="G2" s="222"/>
     </row>
     <row r="3" spans="1:15" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="202"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="227"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="204" t="s">
+      <c r="F3" s="223" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="205"/>
+      <c r="G3" s="224"/>
     </row>
     <row r="4" spans="1:15" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="202"/>
+      <c r="D4" s="227"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="201"/>
-      <c r="G4" s="205"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="224"/>
     </row>
     <row r="5" spans="1:15" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="225" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="202"/>
+      <c r="D5" s="227"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="205"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="224"/>
     </row>
     <row r="6" spans="1:15" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="225" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="202"/>
+      <c r="D6" s="227"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="205"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="224"/>
     </row>
     <row r="7" spans="1:15" ht="13">
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="212"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="213"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="215"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="214"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="216"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="215"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="214"/>
     </row>
     <row r="10" spans="1:15" ht="12" thickBot="1">
-      <c r="B10" s="217"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="219"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="218"/>
     </row>
     <row r="12" spans="1:15" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9857,10 +9857,10 @@
       <c r="B24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="206" t="s">
+      <c r="C24" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="207"/>
+      <c r="D24" s="208"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -9878,10 +9878,10 @@
       <c r="B25" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="245" t="s">
+      <c r="C25" s="248" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="246"/>
+      <c r="D25" s="249"/>
       <c r="E25" s="93" t="s">
         <v>3</v>
       </c>
@@ -9916,8 +9916,8 @@
         <v>2</v>
       </c>
       <c r="B26" s="69"/>
-      <c r="C26" s="247"/>
-      <c r="D26" s="248"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="245"/>
       <c r="E26" s="70"/>
       <c r="F26" s="70"/>
       <c r="G26" s="72"/>
@@ -9999,14 +9999,14 @@
       <c r="B29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="208" t="s">
+      <c r="C29" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="209"/>
-      <c r="E29" s="208" t="s">
+      <c r="D29" s="201"/>
+      <c r="E29" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="222"/>
+      <c r="F29" s="202"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -10037,14 +10037,14 @@
         <v>1</v>
       </c>
       <c r="B30" s="19"/>
-      <c r="C30" s="220" t="s">
+      <c r="C30" s="219" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="221"/>
-      <c r="E30" s="243" t="s">
+      <c r="D30" s="220"/>
+      <c r="E30" s="246" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="244"/>
+      <c r="F30" s="247"/>
       <c r="G30" s="20" t="s">
         <v>154</v>
       </c>
@@ -10075,14 +10075,14 @@
         <v>2</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="225" t="s">
+      <c r="C31" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="226"/>
-      <c r="E31" s="225" t="s">
+      <c r="D31" s="206"/>
+      <c r="E31" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="226"/>
+      <c r="F31" s="206"/>
       <c r="G31" s="53" t="s">
         <v>154</v>
       </c>
@@ -10113,10 +10113,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="167"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="224"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="204"/>
       <c r="G32" s="168"/>
       <c r="I32" s="13">
         <v>8</v>
@@ -10152,29 +10152,20 @@
       <c r="B35" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="208" t="s">
+      <c r="C35" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="209"/>
-      <c r="E35" s="208" t="s">
+      <c r="D35" s="201"/>
+      <c r="E35" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="222"/>
+      <c r="F35" s="202"/>
       <c r="G35" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C35:D35"/>
@@ -10191,6 +10182,15 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10238,103 +10238,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="200"/>
+      <c r="D2" s="226"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="203"/>
+      <c r="G2" s="222"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="202"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="227"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="201" t="s">
+      <c r="F3" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="205"/>
+      <c r="G3" s="224"/>
     </row>
     <row r="4" spans="1:11" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="202"/>
+      <c r="D4" s="227"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="201"/>
-      <c r="G4" s="205"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="224"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="225" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="202"/>
+      <c r="D5" s="227"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="205"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="224"/>
     </row>
     <row r="6" spans="1:11" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="225" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="202"/>
+      <c r="D6" s="227"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="205"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="224"/>
     </row>
     <row r="7" spans="1:11" ht="13">
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="212"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="213"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="215"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="214"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="216"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="215"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="214"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1">
-      <c r="B10" s="217"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="219"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="218"/>
     </row>
     <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10556,10 +10556,10 @@
       <c r="B24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="206" t="s">
+      <c r="C24" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="207"/>
+      <c r="D24" s="208"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -10577,10 +10577,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="220" t="s">
+      <c r="C25" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="221"/>
+      <c r="D25" s="220"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -10594,10 +10594,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="251" t="s">
+      <c r="C26" s="252" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="252"/>
+      <c r="D26" s="253"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -10616,14 +10616,14 @@
       <c r="B29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="208" t="s">
+      <c r="C29" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="209"/>
-      <c r="E29" s="208" t="s">
+      <c r="D29" s="201"/>
+      <c r="E29" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="222"/>
+      <c r="F29" s="202"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -10640,14 +10640,14 @@
       <c r="B32" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="208" t="s">
+      <c r="C32" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="209"/>
-      <c r="E32" s="208" t="s">
+      <c r="D32" s="201"/>
+      <c r="E32" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="222"/>
+      <c r="F32" s="202"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -10657,29 +10657,20 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="249" t="s">
+      <c r="C33" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="250"/>
-      <c r="E33" s="251" t="s">
+      <c r="D33" s="251"/>
+      <c r="E33" s="252" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="252"/>
+      <c r="F33" s="253"/>
       <c r="G33" s="28" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -10692,6 +10683,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10739,105 +10739,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="200"/>
+      <c r="D2" s="226"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="203"/>
+      <c r="G2" s="222"/>
     </row>
     <row r="3" spans="1:7" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="202"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="227"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="201" t="s">
+      <c r="F3" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="205"/>
+      <c r="G3" s="224"/>
     </row>
     <row r="4" spans="1:7" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="202"/>
+      <c r="D4" s="227"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="201"/>
-      <c r="G4" s="205"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="224"/>
     </row>
     <row r="5" spans="1:7" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="225" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="202"/>
+      <c r="D5" s="227"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="205"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="224"/>
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="225" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="202"/>
+      <c r="D6" s="227"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="205"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="224"/>
     </row>
     <row r="7" spans="1:7" ht="13">
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="212"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="215"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="214"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="216"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="215"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="214"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1">
-      <c r="B10" s="217"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="219"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="218"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10942,10 +10942,10 @@
       <c r="B19" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="206" t="s">
+      <c r="C19" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="207"/>
+      <c r="D19" s="208"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -10963,10 +10963,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="220" t="s">
+      <c r="C20" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="221"/>
+      <c r="D20" s="220"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -10980,10 +10980,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="249" t="s">
+      <c r="C21" s="250" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="250"/>
+      <c r="D21" s="251"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -11002,14 +11002,14 @@
       <c r="B24" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="208" t="s">
+      <c r="C24" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="209"/>
-      <c r="E24" s="208" t="s">
+      <c r="D24" s="201"/>
+      <c r="E24" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="222"/>
+      <c r="F24" s="202"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -11026,14 +11026,14 @@
       <c r="B27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="208" t="s">
+      <c r="C27" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="209"/>
-      <c r="E27" s="208" t="s">
+      <c r="D27" s="201"/>
+      <c r="E27" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="222"/>
+      <c r="F27" s="202"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -11043,23 +11043,14 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="251"/>
-      <c r="F28" s="252"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="253"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -11072,6 +11063,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/detail_design/db/MCS_Database_Design.xlsx
+++ b/doc/detail_design/db/MCS_Database_Design.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="185">
   <si>
     <t>No</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>Foreign Key Name</t>
-  </si>
-  <si>
-    <t>passwd</t>
   </si>
   <si>
     <t>player</t>
@@ -500,9 +497,6 @@
   </si>
   <si>
     <t>Just allow a-z, 0-9.</t>
-  </si>
-  <si>
-    <t>0: Disabled, 1: Active</t>
   </si>
   <si>
     <t>Articles</t>
@@ -643,9 +637,6 @@
     <t>Last name</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
     <t>last_login_dt</t>
   </si>
   <si>
@@ -653,6 +644,57 @@
   </si>
   <si>
     <t>Access token</t>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>0: Deleted, 1: Active</t>
+  </si>
+  <si>
+    <t>0: Inactive, 1: Active</t>
+  </si>
+  <si>
+    <t>owner_flg</t>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+  </si>
+  <si>
+    <t>Article owner flag</t>
+  </si>
+  <si>
+    <t>0: Not owner, 1: Owner</t>
+  </si>
+  <si>
+    <t>Vu</t>
+  </si>
+  <si>
+    <t>Truong</t>
+  </si>
+  <si>
+    <t>truong.vu@mulodo.com</t>
+  </si>
+  <si>
+    <t>b29f1055992addafd..</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>tran.moi@mulodo.com</t>
+  </si>
+  <si>
+    <t>f29f1055992addafd..</t>
+  </si>
+  <si>
+    <t>Moi</t>
   </si>
 </sst>
 </file>
@@ -663,7 +705,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,21 +896,8 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="9"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +916,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="75">
     <border>
@@ -1895,7 +1930,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="435">
+  <cellStyleXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3198,6 +3233,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3388,18 +3441,12 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3454,9 +3501,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3533,9 +3577,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3590,9 +3631,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3633,9 +3671,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3707,32 +3742,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3924,8 +3944,41 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="435">
+  <cellStyles count="441">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -4353,6 +4406,12 @@
     <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ハイパーリンク 2" xfId="4"/>
@@ -4376,20 +4435,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>345440</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>513368</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:colOff>327501</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="MCS_ERD(2).png"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="MCS_ERD(3).png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4408,8 +4467,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="345440" y="294640"/>
-          <a:ext cx="9220488" cy="4257040"/>
+          <a:off x="355600" y="284480"/>
+          <a:ext cx="9024461" cy="4348480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4993,112 +5052,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
-      <c r="A1" s="159"/>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="160"/>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="160"/>
-      <c r="AJ1" s="160"/>
-      <c r="AK1" s="160"/>
-      <c r="AL1" s="160"/>
-      <c r="AM1" s="160"/>
-      <c r="AN1" s="160"/>
-      <c r="AO1" s="160"/>
-      <c r="AP1" s="160"/>
-      <c r="AQ1" s="160"/>
-      <c r="AR1" s="160"/>
-      <c r="AS1" s="160"/>
-      <c r="AT1" s="160"/>
-      <c r="AU1" s="160"/>
-      <c r="AV1" s="160"/>
-      <c r="AW1" s="160"/>
-      <c r="AX1" s="160"/>
-      <c r="AY1" s="160"/>
-      <c r="AZ1" s="161"/>
+      <c r="A1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="154"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="154"/>
+      <c r="AJ1" s="154"/>
+      <c r="AK1" s="154"/>
+      <c r="AL1" s="154"/>
+      <c r="AM1" s="154"/>
+      <c r="AN1" s="154"/>
+      <c r="AO1" s="154"/>
+      <c r="AP1" s="154"/>
+      <c r="AQ1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="154"/>
+      <c r="AT1" s="154"/>
+      <c r="AU1" s="154"/>
+      <c r="AV1" s="154"/>
+      <c r="AW1" s="154"/>
+      <c r="AX1" s="154"/>
+      <c r="AY1" s="154"/>
+      <c r="AZ1" s="155"/>
     </row>
     <row r="2" spans="1:52" ht="14" thickBot="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="163"/>
-      <c r="AJ2" s="163"/>
-      <c r="AK2" s="163"/>
-      <c r="AL2" s="163"/>
-      <c r="AM2" s="163"/>
-      <c r="AN2" s="163"/>
-      <c r="AO2" s="163"/>
-      <c r="AP2" s="163"/>
-      <c r="AQ2" s="163"/>
-      <c r="AR2" s="163"/>
-      <c r="AS2" s="163"/>
-      <c r="AT2" s="163"/>
-      <c r="AU2" s="163"/>
-      <c r="AV2" s="163"/>
-      <c r="AW2" s="163"/>
-      <c r="AX2" s="163"/>
-      <c r="AY2" s="163"/>
-      <c r="AZ2" s="164"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="157"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="157"/>
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="157"/>
+      <c r="AO2" s="157"/>
+      <c r="AP2" s="157"/>
+      <c r="AQ2" s="157"/>
+      <c r="AR2" s="157"/>
+      <c r="AS2" s="157"/>
+      <c r="AT2" s="157"/>
+      <c r="AU2" s="157"/>
+      <c r="AV2" s="157"/>
+      <c r="AW2" s="157"/>
+      <c r="AX2" s="157"/>
+      <c r="AY2" s="157"/>
+      <c r="AZ2" s="158"/>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="3"/>
@@ -5655,29 +5714,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="196"/>
-      <c r="R13" s="196"/>
-      <c r="S13" s="196"/>
-      <c r="T13" s="196"/>
-      <c r="U13" s="196"/>
-      <c r="V13" s="196"/>
-      <c r="W13" s="196"/>
-      <c r="X13" s="196"/>
-      <c r="Y13" s="196"/>
-      <c r="Z13" s="196"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="196"/>
-      <c r="AC13" s="196"/>
-      <c r="AD13" s="196"/>
-      <c r="AE13" s="196"/>
-      <c r="AF13" s="196"/>
-      <c r="AG13" s="196"/>
-      <c r="AH13" s="196"/>
-      <c r="AI13" s="196"/>
-      <c r="AJ13" s="196"/>
-      <c r="AK13" s="196"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="185"/>
+      <c r="R13" s="185"/>
+      <c r="S13" s="185"/>
+      <c r="T13" s="185"/>
+      <c r="U13" s="185"/>
+      <c r="V13" s="185"/>
+      <c r="W13" s="185"/>
+      <c r="X13" s="185"/>
+      <c r="Y13" s="185"/>
+      <c r="Z13" s="185"/>
+      <c r="AA13" s="185"/>
+      <c r="AB13" s="185"/>
+      <c r="AC13" s="185"/>
+      <c r="AD13" s="185"/>
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="185"/>
+      <c r="AG13" s="185"/>
+      <c r="AH13" s="185"/>
+      <c r="AI13" s="185"/>
+      <c r="AJ13" s="185"/>
+      <c r="AK13" s="185"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5709,29 +5768,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="196"/>
-      <c r="P14" s="196"/>
-      <c r="Q14" s="196"/>
-      <c r="R14" s="196"/>
-      <c r="S14" s="196"/>
-      <c r="T14" s="196"/>
-      <c r="U14" s="196"/>
-      <c r="V14" s="196"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="196"/>
-      <c r="Z14" s="196"/>
-      <c r="AA14" s="196"/>
-      <c r="AB14" s="196"/>
-      <c r="AC14" s="196"/>
-      <c r="AD14" s="196"/>
-      <c r="AE14" s="196"/>
-      <c r="AF14" s="196"/>
-      <c r="AG14" s="196"/>
-      <c r="AH14" s="196"/>
-      <c r="AI14" s="196"/>
-      <c r="AJ14" s="196"/>
-      <c r="AK14" s="196"/>
+      <c r="O14" s="185"/>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="185"/>
+      <c r="R14" s="185"/>
+      <c r="S14" s="185"/>
+      <c r="T14" s="185"/>
+      <c r="U14" s="185"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="185"/>
+      <c r="X14" s="185"/>
+      <c r="Y14" s="185"/>
+      <c r="Z14" s="185"/>
+      <c r="AA14" s="185"/>
+      <c r="AB14" s="185"/>
+      <c r="AC14" s="185"/>
+      <c r="AD14" s="185"/>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="185"/>
+      <c r="AG14" s="185"/>
+      <c r="AH14" s="185"/>
+      <c r="AI14" s="185"/>
+      <c r="AJ14" s="185"/>
+      <c r="AK14" s="185"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5759,43 +5818,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="197" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="197"/>
-      <c r="M15" s="197"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="197"/>
-      <c r="AD15" s="197"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="197"/>
-      <c r="AH15" s="197"/>
-      <c r="AI15" s="197"/>
-      <c r="AJ15" s="197"/>
-      <c r="AK15" s="197"/>
-      <c r="AL15" s="197"/>
-      <c r="AM15" s="197"/>
-      <c r="AN15" s="197"/>
-      <c r="AO15" s="197"/>
-      <c r="AP15" s="197"/>
-      <c r="AQ15" s="197"/>
-      <c r="AR15" s="197"/>
-      <c r="AS15" s="197"/>
+      <c r="K15" s="186" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="186"/>
+      <c r="M15" s="186"/>
+      <c r="N15" s="186"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="186"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="186"/>
+      <c r="S15" s="186"/>
+      <c r="T15" s="186"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="186"/>
+      <c r="X15" s="186"/>
+      <c r="Y15" s="186"/>
+      <c r="Z15" s="186"/>
+      <c r="AA15" s="186"/>
+      <c r="AB15" s="186"/>
+      <c r="AC15" s="186"/>
+      <c r="AD15" s="186"/>
+      <c r="AE15" s="186"/>
+      <c r="AF15" s="186"/>
+      <c r="AG15" s="186"/>
+      <c r="AH15" s="186"/>
+      <c r="AI15" s="186"/>
+      <c r="AJ15" s="186"/>
+      <c r="AK15" s="186"/>
+      <c r="AL15" s="186"/>
+      <c r="AM15" s="186"/>
+      <c r="AN15" s="186"/>
+      <c r="AO15" s="186"/>
+      <c r="AP15" s="186"/>
+      <c r="AQ15" s="186"/>
+      <c r="AR15" s="186"/>
+      <c r="AS15" s="186"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5815,41 +5874,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="197"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="197"/>
-      <c r="V16" s="197"/>
-      <c r="W16" s="197"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="197"/>
-      <c r="Z16" s="197"/>
-      <c r="AA16" s="197"/>
-      <c r="AB16" s="197"/>
-      <c r="AC16" s="197"/>
-      <c r="AD16" s="197"/>
-      <c r="AE16" s="197"/>
-      <c r="AF16" s="197"/>
-      <c r="AG16" s="197"/>
-      <c r="AH16" s="197"/>
-      <c r="AI16" s="197"/>
-      <c r="AJ16" s="197"/>
-      <c r="AK16" s="197"/>
-      <c r="AL16" s="197"/>
-      <c r="AM16" s="197"/>
-      <c r="AN16" s="197"/>
-      <c r="AO16" s="197"/>
-      <c r="AP16" s="197"/>
-      <c r="AQ16" s="197"/>
-      <c r="AR16" s="197"/>
-      <c r="AS16" s="197"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="186"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="186"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="186"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="186"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="186"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="186"/>
+      <c r="AA16" s="186"/>
+      <c r="AB16" s="186"/>
+      <c r="AC16" s="186"/>
+      <c r="AD16" s="186"/>
+      <c r="AE16" s="186"/>
+      <c r="AF16" s="186"/>
+      <c r="AG16" s="186"/>
+      <c r="AH16" s="186"/>
+      <c r="AI16" s="186"/>
+      <c r="AJ16" s="186"/>
+      <c r="AK16" s="186"/>
+      <c r="AL16" s="186"/>
+      <c r="AM16" s="186"/>
+      <c r="AN16" s="186"/>
+      <c r="AO16" s="186"/>
+      <c r="AP16" s="186"/>
+      <c r="AQ16" s="186"/>
+      <c r="AR16" s="186"/>
+      <c r="AS16" s="186"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6438,14 +6497,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="198">
+      <c r="AN27" s="187">
         <v>41922</v>
       </c>
-      <c r="AO27" s="198"/>
-      <c r="AP27" s="198"/>
-      <c r="AQ27" s="198"/>
-      <c r="AR27" s="198"/>
-      <c r="AS27" s="198"/>
+      <c r="AO27" s="187"/>
+      <c r="AP27" s="187"/>
+      <c r="AQ27" s="187"/>
+      <c r="AR27" s="187"/>
+      <c r="AS27" s="187"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -6935,122 +6994,122 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="226"/>
+      <c r="D2" s="215"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="254" t="s">
+      <c r="F2" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="255"/>
+      <c r="G2" s="244"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="227"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="223" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="224"/>
+      <c r="F3" s="212" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="213"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="225" t="s">
+      <c r="C4" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="227"/>
+      <c r="D4" s="216"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="225"/>
-      <c r="G4" s="224"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="213"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="225" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="227"/>
+      <c r="C5" s="214" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="216"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="224"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="213"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="225" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="227"/>
+      <c r="C6" s="214" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="216"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="213"/>
     </row>
     <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="211"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="200"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="212"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="214"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="203"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="215"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="203"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="216"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="218"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="207"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
     </row>
     <row r="12" spans="1:14" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="30" t="s">
@@ -7074,67 +7133,67 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="14">
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
+        <v>51</v>
+      </c>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="14">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="84" t="s">
+      <c r="B15" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="82" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="14">
@@ -7142,26 +7201,26 @@
         <v>3</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="65" t="s">
-        <v>70</v>
-      </c>
       <c r="D16" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="14">
@@ -7169,13 +7228,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>67</v>
-      </c>
       <c r="D17" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>3</v>
@@ -7184,15 +7243,15 @@
         <v>4</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
+        <v>67</v>
+      </c>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
     </row>
     <row r="18" spans="1:14" ht="12" thickBot="1">
       <c r="A18" s="56">
@@ -7200,45 +7259,45 @@
         <v>5</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
     </row>
     <row r="20" spans="1:14" ht="12" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="29" t="s">
@@ -7247,10 +7306,10 @@
       <c r="B21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="207" t="s">
+      <c r="C21" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="208"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -7260,12 +7319,12 @@
       <c r="G21" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
     </row>
     <row r="22" spans="1:14" ht="13">
       <c r="A22" s="14">
@@ -7274,10 +7333,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="219" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="220"/>
+      <c r="C22" s="208" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="209"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -7285,73 +7344,73 @@
         <v>3</v>
       </c>
       <c r="G22" s="20"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
     </row>
     <row r="23" spans="1:14" ht="13" customHeight="1">
       <c r="A23" s="57">
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="205" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="206"/>
+      <c r="C23" s="194" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="195"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="53"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
     </row>
     <row r="24" spans="1:14" ht="14" thickBot="1">
       <c r="A24" s="16">
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="250" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="251"/>
+      <c r="C24" s="239" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="240"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="28"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
     </row>
     <row r="26" spans="1:14" ht="12" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
     </row>
     <row r="27" spans="1:14" ht="14" thickBot="1">
       <c r="A27" s="36" t="s">
@@ -7360,42 +7419,42 @@
       <c r="B27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="200" t="s">
+      <c r="C27" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="201"/>
-      <c r="E27" s="200" t="s">
+      <c r="D27" s="190"/>
+      <c r="E27" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="202"/>
+      <c r="F27" s="191"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
     </row>
     <row r="29" spans="1:14" ht="12" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
     </row>
     <row r="30" spans="1:14" ht="14" thickBot="1">
       <c r="A30" s="36" t="s">
@@ -7404,109 +7463,109 @@
       <c r="B30" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="200" t="s">
+      <c r="C30" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="201"/>
-      <c r="E30" s="200" t="s">
+      <c r="D30" s="190"/>
+      <c r="E30" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="202"/>
+      <c r="F30" s="191"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
     </row>
     <row r="31" spans="1:14" ht="13">
       <c r="A31" s="57">
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="219" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="220"/>
-      <c r="E31" s="205" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="206"/>
+      <c r="C31" s="208" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="209"/>
+      <c r="E31" s="194" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="195"/>
       <c r="G31" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
+        <v>78</v>
+      </c>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
     </row>
     <row r="32" spans="1:14" ht="14" thickBot="1">
       <c r="A32" s="56">
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="232" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="233"/>
-      <c r="E32" s="252" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="253"/>
+      <c r="C32" s="221" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="222"/>
+      <c r="E32" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="242"/>
       <c r="G32" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
+        <v>53</v>
+      </c>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
     </row>
     <row r="33" spans="8:13">
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
     </row>
     <row r="34" spans="8:13">
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
     </row>
     <row r="35" spans="8:13">
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
     </row>
     <row r="36" spans="8:13">
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
     </row>
     <row r="37" spans="8:13">
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -7560,266 +7619,266 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="123" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="122" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="122" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="122" customWidth="1"/>
-    <col min="5" max="5" width="67.6640625" style="123" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="123" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="123" customWidth="1"/>
-    <col min="8" max="14" width="10.5" style="123" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="123"/>
+    <col min="1" max="1" width="3.1640625" style="119" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="118" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="118" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="118" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" style="119" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="119" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" style="119" customWidth="1"/>
+    <col min="8" max="14" width="10.5" style="119" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="119"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="12" thickBot="1"/>
     <row r="2" spans="2:6" ht="12" thickBot="1">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="122" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="127">
+      <c r="B3" s="123">
         <v>41922</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="159" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="128" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="129" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="130"/>
+      <c r="E3" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="126"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="131"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="131"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="130"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="131"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="134"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="130"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="131"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="134"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="130"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="131"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="130"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="131"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="131"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="134"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="130"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="131"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="134"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="130"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="131"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="135"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="134"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="135"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="134"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="135"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="134"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="130"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="135"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="134"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="130"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="135"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="134"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="130"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="135"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="134"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="130"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="135"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="134"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="130"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="135"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="135"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="134"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="130"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="135"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="135"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="134"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="130"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="135"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="134"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="130"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="135"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="130"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="135"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="134"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="135"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="134"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="130"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="135"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="134"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="130"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="135"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="134"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="130"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="135"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="134"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="130"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="135"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="134"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="130"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="135"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="134"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="130"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="135"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="134"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
     </row>
     <row r="34" spans="2:6" ht="12" thickBot="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="139"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="135"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7841,7 +7900,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -7852,56 +7911,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
     </row>
     <row r="2" spans="1:3" ht="12" thickBot="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="168" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12">
-      <c r="A3" s="175">
+    <row r="3" spans="1:3">
+      <c r="A3" s="169">
         <v>1</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="245" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="188" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="59">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="177" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="189" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12">
+      <c r="B4" s="171" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="172" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="59">
         <f t="shared" ref="A5:A28" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="177" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="189" t="s">
-        <v>132</v>
+      <c r="B5" s="171" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="172" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7909,184 +7968,184 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="177"/>
-      <c r="C6" s="178"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="178"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="177"/>
-      <c r="C8" s="178"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="59">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="177"/>
-      <c r="C10" s="178"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="172"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="59">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="172"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="177"/>
-      <c r="C12" s="178"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="172"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="59">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="172"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="59">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="177"/>
-      <c r="C14" s="178"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="172"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="59">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="177"/>
-      <c r="C15" s="178"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="172"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="59">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="177"/>
-      <c r="C16" s="178"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="172"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="59">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="172"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="59">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="59">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="178"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="172"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="59">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="172"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="59">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="177"/>
-      <c r="C21" s="178"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="172"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="59">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="178"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="172"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="59">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="177"/>
-      <c r="C23" s="178"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="172"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="59">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="178"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="172"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="59">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="172"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="59">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="178"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="172"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="59">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="177"/>
-      <c r="C27" s="178"/>
+      <c r="B27" s="171"/>
+      <c r="C27" s="172"/>
     </row>
     <row r="28" spans="1:3" ht="12" thickBot="1">
-      <c r="A28" s="74">
+      <c r="A28" s="72">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="179"/>
-      <c r="C28" s="180"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8119,8 +8178,8 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -8131,11 +8190,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="199" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
+      <c r="A1" s="188" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8161,10 +8220,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="B6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -8176,128 +8235,131 @@
     <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.83203125" style="13"/>
-    <col min="11" max="11" width="31.83203125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17" style="13" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="13"/>
+    <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
+    <col min="14" max="15" width="19.33203125" style="13" customWidth="1"/>
+    <col min="16" max="17" width="17" style="13" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="13" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12" thickBot="1">
+    <row r="1" spans="1:19" ht="12" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13">
+    <row r="2" spans="1:19" ht="13">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="221" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="226"/>
+      <c r="C2" s="210" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="215"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="221" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="222"/>
-    </row>
-    <row r="3" spans="1:13" ht="13">
+      <c r="F2" s="210" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="211"/>
+    </row>
+    <row r="3" spans="1:19" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="227"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="223" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="224"/>
-    </row>
-    <row r="4" spans="1:13" ht="13">
+      <c r="F3" s="212" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="213"/>
+    </row>
+    <row r="4" spans="1:19" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="225" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="227"/>
+      <c r="C4" s="214" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="216"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="225"/>
-      <c r="G4" s="224"/>
-    </row>
-    <row r="5" spans="1:13" ht="13">
+      <c r="F4" s="214"/>
+      <c r="G4" s="213"/>
+    </row>
+    <row r="5" spans="1:19" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="225" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="227"/>
+      <c r="C5" s="214" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="216"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="224"/>
-    </row>
-    <row r="6" spans="1:13" ht="13">
+      <c r="F5" s="214"/>
+      <c r="G5" s="213"/>
+    </row>
+    <row r="6" spans="1:19" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="225" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="227"/>
+      <c r="C6" s="214" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="216"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="224"/>
-    </row>
-    <row r="7" spans="1:13" ht="13">
-      <c r="B7" s="209" t="s">
+      <c r="F6" s="214"/>
+      <c r="G6" s="213"/>
+    </row>
+    <row r="7" spans="1:19" ht="13">
+      <c r="B7" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="211"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="212"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="214"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="215"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
-    </row>
-    <row r="10" spans="1:13" ht="12" thickBot="1">
-      <c r="B10" s="216"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="218"/>
-    </row>
-    <row r="12" spans="1:13" ht="12" thickBot="1">
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="200"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="201"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="203"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="204"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="203"/>
+    </row>
+    <row r="10" spans="1:19" ht="12" thickBot="1">
+      <c r="B10" s="205"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="207"/>
+    </row>
+    <row r="12" spans="1:19" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
         <v>0</v>
       </c>
@@ -8319,119 +8381,173 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="186" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="186" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="186" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="186" t="s">
+      <c r="I13" s="178" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="178" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="178" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="178" t="s">
+        <v>161</v>
+      </c>
+      <c r="M13" s="178" t="s">
+        <v>162</v>
+      </c>
+      <c r="N13" s="178" t="s">
+        <v>169</v>
+      </c>
+      <c r="O13" s="178" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" s="178" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q13" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" s="178" t="s">
         <v>102</v>
       </c>
-      <c r="M13" s="186" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="73">
+      <c r="S13" s="178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="14">
+      <c r="A14" s="71">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="67"/>
-      <c r="G14" s="154" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="116"/>
+      <c r="G14" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="113"/>
       <c r="I14" s="13">
         <v>1</v>
       </c>
       <c r="J14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" s="181">
+      <c r="L14" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="N14" s="255" t="s">
+        <v>179</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="P14" s="175">
         <v>41922.465277777781</v>
       </c>
-      <c r="M14" s="181">
+      <c r="Q14" s="175">
         <v>41922.465277777781</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="R14" s="175">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="S14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="14">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="65" t="s">
-        <v>119</v>
-      </c>
       <c r="D15" s="65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
-      <c r="G15" s="158" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="116"/>
+      <c r="G15" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="113"/>
       <c r="I15" s="13">
         <v>2</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" s="181">
+        <v>138</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" s="255" t="s">
+        <v>182</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="P15" s="175">
         <v>41922.46875</v>
       </c>
-      <c r="M15" s="181">
+      <c r="Q15" s="175">
         <v>41922.46875</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="R15" s="175">
+        <v>41922.46875</v>
+      </c>
+      <c r="S15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="59">
-        <f t="shared" ref="A16:A28" si="0">A15+1</f>
+        <f t="shared" ref="A16:A24" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="67"/>
-      <c r="G16" s="171" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="116"/>
+      <c r="G16" s="165" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="113"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="59">
@@ -8439,19 +8555,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="67"/>
-      <c r="G17" s="171"/>
+      <c r="G17" s="165"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="59">
@@ -8459,302 +8575,262 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="195" t="s">
-        <v>57</v>
+        <v>162</v>
+      </c>
+      <c r="D18" s="184" t="s">
+        <v>56</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="67"/>
-      <c r="G18" s="154"/>
+      <c r="G18" s="149"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
+      <c r="B19" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="184" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F19" s="67"/>
-      <c r="G19" s="154"/>
+      <c r="G19" s="149"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="184" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>0</v>
+      </c>
       <c r="F20" s="67"/>
-      <c r="G20" s="154"/>
+      <c r="G20" s="149"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="59">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
+      <c r="B21" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>0</v>
+      </c>
       <c r="F21" s="67"/>
-      <c r="G21" s="154"/>
+      <c r="G21" s="149"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="59">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
+      <c r="B22" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F22" s="67"/>
-      <c r="G22" s="154"/>
+      <c r="G22" s="149" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
+      <c r="B23" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F23" s="67"/>
-      <c r="G23" s="154"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="59">
+      <c r="G23" s="149"/>
+    </row>
+    <row r="24" spans="1:7" ht="12" thickBot="1">
+      <c r="A24" s="72">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="195" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="66" t="s">
+      <c r="B24" s="246" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="247" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="248" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="250" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="249" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="154"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="59">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="66" t="s">
+      <c r="B27" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="196" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="197"/>
+      <c r="E27" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13">
+      <c r="A28" s="14">
+        <v>1</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="208" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="209"/>
+      <c r="E28" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" ht="13" customHeight="1">
+      <c r="A29" s="57">
+        <v>2</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="194" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="195"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="53"/>
+    </row>
+    <row r="30" spans="1:7" ht="13" customHeight="1" thickBot="1">
+      <c r="A30" s="56">
+        <v>3</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="32" spans="1:7" ht="12" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14" thickBot="1">
+      <c r="A33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="154"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="59">
-        <f>A25+1</f>
-        <v>13</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="154" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="59">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="154"/>
-    </row>
-    <row r="28" spans="1:7" ht="12" thickBot="1">
-      <c r="A28" s="74">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="155" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12" thickBot="1">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="29" t="s">
+      <c r="B33" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="189" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="190"/>
+      <c r="E33" s="189" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="191"/>
+      <c r="G33" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12" thickBot="1">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14" thickBot="1">
+      <c r="A36" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="207" t="s">
+      <c r="B36" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="208"/>
-      <c r="E31" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="13">
-      <c r="A32" s="14">
-        <v>1</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="219" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="220"/>
-      <c r="E32" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" ht="13" customHeight="1">
-      <c r="A33" s="57">
-        <v>2</v>
-      </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="205" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="206"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="53"/>
-    </row>
-    <row r="34" spans="1:7" ht="13" customHeight="1" thickBot="1">
-      <c r="A34" s="56">
-        <v>3</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="203"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="55"/>
-    </row>
-    <row r="36" spans="1:7" ht="12" thickBot="1">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14" thickBot="1">
-      <c r="A37" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="200" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="201"/>
-      <c r="E37" s="200" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="202"/>
-      <c r="G37" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12" thickBot="1">
-      <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14" thickBot="1">
-      <c r="A40" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="200" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="201"/>
-      <c r="E40" s="200" t="s">
+      <c r="D36" s="190"/>
+      <c r="E36" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="202"/>
-      <c r="G40" s="38" t="s">
+      <c r="F36" s="191"/>
+      <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8770,18 +8846,22 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="N14" r:id="rId1"/>
+    <hyperlink ref="N15" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <headerFooter>
@@ -8801,10 +8881,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -8816,532 +8896,454 @@
     <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
     <col min="8" max="9" width="8.83203125" style="13"/>
-    <col min="10" max="10" width="22.33203125" style="182" customWidth="1"/>
-    <col min="11" max="11" width="57.83203125" style="184" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="176" customWidth="1"/>
+    <col min="11" max="11" width="57.83203125" style="177" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" style="13" customWidth="1"/>
     <col min="13" max="13" width="18.1640625" style="13" customWidth="1"/>
     <col min="14" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12" thickBot="1">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:14" ht="12" thickBot="1">
+      <c r="A1" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-    </row>
-    <row r="2" spans="1:13" ht="13">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+    </row>
+    <row r="2" spans="1:14" ht="13">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="221" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="226"/>
+      <c r="C2" s="210" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="215"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="221" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="222"/>
-    </row>
-    <row r="3" spans="1:13" ht="13">
-      <c r="A3" s="97"/>
-      <c r="B3" s="99" t="s">
+      <c r="F2" s="210" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="211"/>
+    </row>
+    <row r="3" spans="1:14" ht="13">
+      <c r="A3" s="94"/>
+      <c r="B3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="227"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="223" t="s">
+      <c r="F3" s="212" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="213"/>
+    </row>
+    <row r="4" spans="1:14" ht="13">
+      <c r="A4" s="94"/>
+      <c r="B4" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="214" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="224"/>
-    </row>
-    <row r="4" spans="1:13" ht="13">
-      <c r="A4" s="97"/>
-      <c r="B4" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="225" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="227"/>
+      <c r="D4" s="216"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="225"/>
-      <c r="G4" s="224"/>
-    </row>
-    <row r="5" spans="1:13" ht="13">
-      <c r="A5" s="97"/>
-      <c r="B5" s="99" t="s">
+      <c r="F4" s="214"/>
+      <c r="G4" s="213"/>
+    </row>
+    <row r="5" spans="1:14" ht="13">
+      <c r="A5" s="94"/>
+      <c r="B5" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="238" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="240"/>
-    </row>
-    <row r="6" spans="1:13" ht="13">
-      <c r="A6" s="97"/>
-      <c r="B6" s="99" t="s">
+      <c r="C5" s="227" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="228"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="229"/>
+    </row>
+    <row r="6" spans="1:14" ht="13">
+      <c r="A6" s="94"/>
+      <c r="B6" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="238" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="240"/>
-    </row>
-    <row r="7" spans="1:13" ht="13">
-      <c r="A7" s="97"/>
-      <c r="B7" s="241" t="s">
+      <c r="C6" s="227" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="228"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="229"/>
+    </row>
+    <row r="7" spans="1:14" ht="13">
+      <c r="A7" s="94"/>
+      <c r="B7" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
-      <c r="E7" s="242"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="243"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="212"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="214"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="215"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
-    </row>
-    <row r="10" spans="1:13" ht="12" thickBot="1">
-      <c r="B10" s="216"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="218"/>
-    </row>
-    <row r="12" spans="1:13" ht="12" thickBot="1">
+      <c r="C7" s="231"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="232"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="201"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="203"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="204"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="203"/>
+    </row>
+    <row r="10" spans="1:14" ht="12" thickBot="1">
+      <c r="B10" s="205"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="207"/>
+    </row>
+    <row r="12" spans="1:14" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12" thickBot="1">
-      <c r="A13" s="118" t="s">
+    <row r="13" spans="1:14" ht="12" thickBot="1">
+      <c r="A13" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="120" t="s">
+      <c r="E13" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="119" t="s">
+      <c r="F13" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="121" t="s">
+      <c r="G13" s="117" t="s">
         <v>31</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="141">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="136">
         <v>1</v>
       </c>
-      <c r="B14" s="142" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="143" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="145" t="s">
+      <c r="B14" s="137" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="138" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="147" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="186" t="s">
-        <v>154</v>
-      </c>
-      <c r="J14" s="187" t="s">
+      <c r="F14" s="141"/>
+      <c r="G14" s="142" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="178" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="179" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="190" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" s="186" t="s">
+      <c r="L14" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="178" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="186" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="59" customHeight="1">
-      <c r="A15" s="114">
+      <c r="N14" s="178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="59" customHeight="1">
+      <c r="A15" s="111">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="84" t="s">
+      <c r="B15" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="169"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="163"/>
       <c r="I15" s="13">
         <v>1</v>
       </c>
-      <c r="J15" s="182" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="184" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" s="181">
+      <c r="J15" s="176" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="177" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" s="175">
         <v>41922.465277777781</v>
       </c>
-      <c r="M15" s="181">
+      <c r="M15" s="175">
         <v>41922.465277777781</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="56" customHeight="1">
-      <c r="A16" s="114">
-        <f t="shared" ref="A16:A27" si="0">A15+1</f>
+      <c r="N15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="56" customHeight="1">
+      <c r="A16" s="111">
+        <f t="shared" ref="A16:A19" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="115"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="112"/>
       <c r="I16" s="13">
         <v>2</v>
       </c>
-      <c r="J16" s="182" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="184" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16" s="181">
+      <c r="J16" s="176" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="177" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" s="175">
         <v>41922.46875</v>
       </c>
-      <c r="M16" s="181">
+      <c r="M16" s="175">
         <v>41922.46875</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="116" customFormat="1">
-      <c r="A17" s="114">
+      <c r="N16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="111">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="185"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="114">
+      <c r="B17" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="111">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="114">
-        <f>A18+1</f>
+      <c r="B18" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
+    </row>
+    <row r="19" spans="1:7" ht="12" thickBot="1">
+      <c r="A19" s="151">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="114">
-        <f>A19+1</f>
-        <v>7</v>
-      </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="114">
-        <f>A20+1</f>
-        <v>8</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="114">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="114">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="114">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="114">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B25" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="84" t="s">
+      <c r="B19" s="246" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="247" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="114">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="84" t="s">
+      <c r="F19" s="250" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="249" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="196" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="197"/>
+      <c r="E22" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14" thickBot="1">
+      <c r="A23" s="56">
+        <v>1</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="221" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="222"/>
+      <c r="E23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
-    </row>
-    <row r="27" spans="1:11" ht="12" thickBot="1">
-      <c r="A27" s="157">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="117"/>
-    </row>
-    <row r="29" spans="1:11" ht="12" thickBot="1">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="29" t="s">
+      <c r="F23" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="25" spans="1:7" ht="12" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14" thickBot="1">
+      <c r="A26" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="207" t="s">
+      <c r="B26" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="208"/>
-      <c r="E30" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14" thickBot="1">
-      <c r="A31" s="56">
+      <c r="D26" s="190"/>
+      <c r="E26" s="189" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="191"/>
+      <c r="G26" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="13">
+      <c r="A27" s="143">
         <v>1</v>
       </c>
-      <c r="B31" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="232" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="233"/>
-      <c r="E31" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="33" spans="1:7" ht="12" thickBot="1">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14" thickBot="1">
-      <c r="A34" s="36" t="s">
+      <c r="B27" s="144"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="225"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="145"/>
+    </row>
+    <row r="28" spans="1:7" ht="14" thickBot="1">
+      <c r="A28" s="146">
+        <v>2</v>
+      </c>
+      <c r="B28" s="147"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="148"/>
+    </row>
+    <row r="30" spans="1:7" ht="12" thickBot="1">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14" thickBot="1">
+      <c r="A31" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B31" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="200" t="s">
+      <c r="C31" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="201"/>
-      <c r="E34" s="200" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="202"/>
-      <c r="G34" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13">
-      <c r="A35" s="148">
-        <v>1</v>
-      </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="234"/>
-      <c r="D35" s="235"/>
-      <c r="E35" s="236"/>
-      <c r="F35" s="237"/>
-      <c r="G35" s="150"/>
-    </row>
-    <row r="36" spans="1:7" ht="14" thickBot="1">
-      <c r="A36" s="151">
-        <v>2</v>
-      </c>
-      <c r="B36" s="152"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="231"/>
-      <c r="G36" s="153"/>
-    </row>
-    <row r="38" spans="1:7" ht="12" thickBot="1">
-      <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14" thickBot="1">
-      <c r="A39" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="200" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="201"/>
-      <c r="E39" s="200" t="s">
+      <c r="D31" s="190"/>
+      <c r="E31" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="202"/>
-      <c r="G39" s="38" t="s">
+      <c r="F31" s="191"/>
+      <c r="G31" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9358,17 +9360,17 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9392,8 +9394,8 @@
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -9401,12 +9403,13 @@
     <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
     <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
-    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="251" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
     <col min="8" max="10" width="8.83203125" style="13"/>
     <col min="11" max="11" width="11" style="13" customWidth="1"/>
     <col min="12" max="12" width="9.1640625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="28.1640625" style="182" customWidth="1"/>
+    <col min="13" max="13" width="28.1640625" style="176" customWidth="1"/>
     <col min="14" max="14" width="21.33203125" style="13" customWidth="1"/>
     <col min="15" max="15" width="18" style="13" customWidth="1"/>
     <col min="16" max="16384" width="8.83203125" style="13"/>
@@ -9421,110 +9424,110 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="221" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="226"/>
+      <c r="C2" s="210" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="215"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="221" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="222"/>
+      <c r="F2" s="210" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="211"/>
     </row>
     <row r="3" spans="1:15" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="227"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="223" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="224"/>
+      <c r="F3" s="212" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="213"/>
     </row>
     <row r="4" spans="1:15" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="225" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="227"/>
+      <c r="C4" s="214" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="216"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="225"/>
-      <c r="G4" s="224"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="213"/>
     </row>
     <row r="5" spans="1:15" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="225" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="227"/>
+      <c r="C5" s="214" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="216"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="224"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="213"/>
     </row>
     <row r="6" spans="1:15" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="225" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="227"/>
+      <c r="C6" s="214" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="216"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="213"/>
     </row>
     <row r="7" spans="1:15" ht="13">
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="211"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="200"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="212"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="214"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="203"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="215"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="203"/>
     </row>
     <row r="10" spans="1:15" ht="12" thickBot="1">
-      <c r="B10" s="216"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="218"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="207"/>
     </row>
     <row r="12" spans="1:15" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -9549,47 +9552,47 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="186" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="186" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="186" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" s="186" t="s">
+      <c r="I13" s="178" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="178" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="178" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="178" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="179" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="178" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="73">
+        <v>1</v>
+      </c>
+      <c r="B14" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="M13" s="187" t="s">
-        <v>133</v>
-      </c>
-      <c r="N13" s="186" t="s">
-        <v>102</v>
-      </c>
-      <c r="O13" s="186" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="75">
-        <v>1</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="78" t="s">
+      <c r="C14" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="79" t="s">
-        <v>52</v>
+      <c r="F14" s="252"/>
+      <c r="G14" s="77" t="s">
+        <v>51</v>
       </c>
       <c r="I14" s="13">
         <v>1</v>
@@ -9603,35 +9606,35 @@
       <c r="L14" s="13">
         <v>1</v>
       </c>
-      <c r="M14" s="182" t="s">
-        <v>145</v>
-      </c>
-      <c r="N14" s="181">
+      <c r="M14" s="176" t="s">
+        <v>143</v>
+      </c>
+      <c r="N14" s="175">
         <v>41922.465277777781</v>
       </c>
-      <c r="O14" s="181">
+      <c r="O14" s="175">
         <v>41922.465277777781</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="33">
-      <c r="A15" s="80">
+      <c r="A15" s="78">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="191" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="84" t="s">
+      <c r="D15" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="84"/>
       <c r="I15" s="13">
         <v>2</v>
       </c>
@@ -9644,35 +9647,35 @@
       <c r="L15" s="13">
         <v>0</v>
       </c>
-      <c r="M15" s="182" t="s">
-        <v>152</v>
-      </c>
-      <c r="N15" s="181">
+      <c r="M15" s="176" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" s="175">
         <v>41922.46875</v>
       </c>
-      <c r="O15" s="181">
+      <c r="O15" s="175">
         <v>41922.46875</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="80">
+      <c r="A16" s="78">
         <f t="shared" ref="A16:A21" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="191" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="84" t="s">
+      <c r="B16" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
+      <c r="F16" s="253"/>
+      <c r="G16" s="84"/>
       <c r="I16" s="13">
         <v>3</v>
       </c>
@@ -9685,35 +9688,39 @@
       <c r="L16" s="13">
         <v>0</v>
       </c>
-      <c r="M16" s="182" t="s">
-        <v>146</v>
-      </c>
-      <c r="N16" s="181">
+      <c r="M16" s="176" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="175">
         <v>41922.472222222219</v>
       </c>
-      <c r="O16" s="181">
+      <c r="O16" s="175">
         <v>41922.472222222219</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="80">
+      <c r="A17" s="78">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="84" t="s">
+      <c r="B17" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
+      <c r="F17" s="253" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="84" t="s">
+        <v>176</v>
+      </c>
       <c r="I17" s="13">
         <v>4</v>
       </c>
@@ -9726,27 +9733,35 @@
       <c r="L17" s="13">
         <v>0</v>
       </c>
-      <c r="M17" s="182" t="s">
-        <v>147</v>
-      </c>
-      <c r="N17" s="181">
+      <c r="M17" s="176" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" s="175">
         <v>41922.472916666666</v>
       </c>
-      <c r="O17" s="181">
+      <c r="O17" s="175">
         <v>41922.472916666666</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="80">
+      <c r="A18" s="78">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
+      <c r="B18" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="253"/>
+      <c r="G18" s="84"/>
       <c r="I18" s="13">
         <v>5</v>
       </c>
@@ -9759,35 +9774,35 @@
       <c r="L18" s="13">
         <v>0</v>
       </c>
-      <c r="M18" s="182" t="s">
-        <v>148</v>
-      </c>
-      <c r="N18" s="181">
+      <c r="M18" s="176" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" s="175">
         <v>41922.472916666666</v>
       </c>
-      <c r="O18" s="181">
+      <c r="O18" s="175">
         <v>41922.472916666666</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="80">
+      <c r="A19" s="78">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="84" t="s">
+      <c r="C19" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="F19" s="253"/>
+      <c r="G19" s="84"/>
       <c r="I19" s="13">
         <v>6</v>
       </c>
@@ -9800,50 +9815,50 @@
       <c r="L19" s="13">
         <v>0</v>
       </c>
-      <c r="M19" s="182" t="s">
-        <v>149</v>
-      </c>
-      <c r="N19" s="181">
+      <c r="M19" s="176" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="175">
         <v>41922.475694444445</v>
       </c>
-      <c r="O19" s="181">
+      <c r="O19" s="175">
         <v>41922.475694444445</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="80">
+      <c r="A20" s="78">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="84" t="s">
+      <c r="C20" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
+      <c r="F20" s="253"/>
+      <c r="G20" s="84"/>
       <c r="I20" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="12" thickBot="1">
-      <c r="A21" s="91">
+      <c r="A21" s="88">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="156"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="150"/>
     </row>
     <row r="23" spans="1:15" ht="12" thickBot="1">
       <c r="A23" s="1" t="s">
@@ -9857,10 +9872,10 @@
       <c r="B24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="207" t="s">
+      <c r="C24" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="208"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -9872,23 +9887,23 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="13">
-      <c r="A25" s="73">
+      <c r="A25" s="71">
         <v>1</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="248" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="249"/>
-      <c r="E25" s="93" t="s">
+      <c r="C25" s="237" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="238"/>
+      <c r="E25" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="94"/>
+      <c r="G25" s="91"/>
       <c r="I25" s="13">
         <v>1</v>
       </c>
@@ -9901,26 +9916,26 @@
       <c r="L25" s="13">
         <v>1</v>
       </c>
-      <c r="M25" s="182" t="s">
-        <v>156</v>
-      </c>
-      <c r="N25" s="181">
+      <c r="M25" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="N25" s="175">
         <v>41922.465277777781</v>
       </c>
-      <c r="O25" s="181">
+      <c r="O25" s="175">
         <v>41922.465277777781</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14" thickBot="1">
-      <c r="A26" s="74">
+      <c r="A26" s="72">
         <v>2</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="244"/>
-      <c r="D26" s="245"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="72"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="70"/>
       <c r="I26" s="13">
         <v>2</v>
       </c>
@@ -9933,36 +9948,36 @@
       <c r="L26" s="13">
         <v>0</v>
       </c>
-      <c r="M26" s="182" t="s">
-        <v>157</v>
-      </c>
-      <c r="N26" s="181">
+      <c r="M26" s="176" t="s">
+        <v>155</v>
+      </c>
+      <c r="N26" s="175">
         <v>41922.465277777781</v>
       </c>
-      <c r="O26" s="181">
+      <c r="O26" s="175">
         <v>41922.465277777781</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="I27" s="192">
+      <c r="I27" s="181">
         <v>3</v>
       </c>
-      <c r="J27" s="192">
+      <c r="J27" s="181">
         <v>1</v>
       </c>
-      <c r="K27" s="192">
+      <c r="K27" s="181">
         <v>1</v>
       </c>
-      <c r="L27" s="192">
+      <c r="L27" s="181">
         <v>0</v>
       </c>
-      <c r="M27" s="193" t="s">
-        <v>158</v>
-      </c>
-      <c r="N27" s="194">
+      <c r="M27" s="182" t="s">
+        <v>156</v>
+      </c>
+      <c r="N27" s="183">
         <v>41922.465277777781</v>
       </c>
-      <c r="O27" s="194">
+      <c r="O27" s="183">
         <v>41922.465277777781</v>
       </c>
     </row>
@@ -9970,25 +9985,25 @@
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="192">
+      <c r="I28" s="181">
         <v>4</v>
       </c>
-      <c r="J28" s="192">
+      <c r="J28" s="181">
         <v>1</v>
       </c>
-      <c r="K28" s="192">
+      <c r="K28" s="181">
         <v>1</v>
       </c>
-      <c r="L28" s="192">
+      <c r="L28" s="181">
         <v>0</v>
       </c>
-      <c r="M28" s="193" t="s">
-        <v>159</v>
-      </c>
-      <c r="N28" s="194">
+      <c r="M28" s="182" t="s">
+        <v>157</v>
+      </c>
+      <c r="N28" s="183">
         <v>41922.465277777781</v>
       </c>
-      <c r="O28" s="194">
+      <c r="O28" s="183">
         <v>41922.465277777781</v>
       </c>
     </row>
@@ -9999,36 +10014,36 @@
       <c r="B29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="200" t="s">
+      <c r="C29" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="201"/>
-      <c r="E29" s="200" t="s">
+      <c r="D29" s="190"/>
+      <c r="E29" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="202"/>
+      <c r="F29" s="191"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="192">
+      <c r="I29" s="181">
         <v>5</v>
       </c>
-      <c r="J29" s="192">
+      <c r="J29" s="181">
         <v>1</v>
       </c>
-      <c r="K29" s="192">
+      <c r="K29" s="181">
         <v>2</v>
       </c>
-      <c r="L29" s="192">
+      <c r="L29" s="181">
         <v>0</v>
       </c>
-      <c r="M29" s="193" t="s">
-        <v>160</v>
-      </c>
-      <c r="N29" s="194">
+      <c r="M29" s="182" t="s">
+        <v>158</v>
+      </c>
+      <c r="N29" s="183">
         <v>41922.465277777781</v>
       </c>
-      <c r="O29" s="194">
+      <c r="O29" s="183">
         <v>41922.465277777781</v>
       </c>
     </row>
@@ -10037,36 +10052,36 @@
         <v>1</v>
       </c>
       <c r="B30" s="19"/>
-      <c r="C30" s="219" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="220"/>
-      <c r="E30" s="246" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="247"/>
+      <c r="C30" s="208" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="209"/>
+      <c r="E30" s="235" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="236"/>
       <c r="G30" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="I30" s="192">
+        <v>152</v>
+      </c>
+      <c r="I30" s="181">
         <v>6</v>
       </c>
-      <c r="J30" s="192">
+      <c r="J30" s="181">
         <v>1</v>
       </c>
-      <c r="K30" s="192">
+      <c r="K30" s="181">
         <v>3</v>
       </c>
-      <c r="L30" s="192">
+      <c r="L30" s="181">
         <v>0</v>
       </c>
-      <c r="M30" s="193" t="s">
-        <v>161</v>
-      </c>
-      <c r="N30" s="194">
+      <c r="M30" s="182" t="s">
+        <v>159</v>
+      </c>
+      <c r="N30" s="183">
         <v>41922.465277777781</v>
       </c>
-      <c r="O30" s="194">
+      <c r="O30" s="183">
         <v>41922.465277777781</v>
       </c>
     </row>
@@ -10075,16 +10090,16 @@
         <v>2</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="205" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="206"/>
-      <c r="E31" s="205" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="206"/>
+      <c r="C31" s="194" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="195"/>
+      <c r="E31" s="194" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="195"/>
       <c r="G31" s="53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I31" s="13">
         <v>7</v>
@@ -10098,26 +10113,26 @@
       <c r="L31" s="13">
         <v>1</v>
       </c>
-      <c r="M31" s="182" t="s">
-        <v>156</v>
-      </c>
-      <c r="N31" s="181">
+      <c r="M31" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="N31" s="175">
         <v>41922.465277777781</v>
       </c>
-      <c r="O31" s="181">
+      <c r="O31" s="175">
         <v>41922.465277777781</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="13" customHeight="1" thickBot="1">
-      <c r="A32" s="108">
+      <c r="A32" s="105">
         <v>3</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="203"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="168"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="192"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="162"/>
       <c r="I32" s="13">
         <v>8</v>
       </c>
@@ -10130,13 +10145,13 @@
       <c r="L32" s="13">
         <v>1</v>
       </c>
-      <c r="M32" s="182" t="s">
-        <v>156</v>
-      </c>
-      <c r="N32" s="181">
+      <c r="M32" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="N32" s="175">
         <v>41922.465277777781</v>
       </c>
-      <c r="O32" s="181">
+      <c r="O32" s="175">
         <v>41922.465277777781</v>
       </c>
     </row>
@@ -10152,14 +10167,14 @@
       <c r="B35" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="200" t="s">
+      <c r="C35" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="201"/>
-      <c r="E35" s="200" t="s">
+      <c r="D35" s="190"/>
+      <c r="E35" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="202"/>
+      <c r="F35" s="191"/>
       <c r="G35" s="38" t="s">
         <v>39</v>
       </c>
@@ -10238,103 +10253,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="226"/>
+      <c r="D2" s="215"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="221" t="s">
+      <c r="F2" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="222"/>
+      <c r="G2" s="211"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="227"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="225" t="s">
+      <c r="F3" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="224"/>
+      <c r="G3" s="213"/>
     </row>
     <row r="4" spans="1:11" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="225" t="s">
+      <c r="C4" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="227"/>
+      <c r="D4" s="216"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="225"/>
-      <c r="G4" s="224"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="213"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="225" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="227"/>
+      <c r="C5" s="214" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="216"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="224"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="213"/>
     </row>
     <row r="6" spans="1:11" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="225" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="227"/>
+      <c r="C6" s="214" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="216"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="213"/>
     </row>
     <row r="7" spans="1:11" ht="13">
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="211"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="200"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="212"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="214"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="203"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="215"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1">
-      <c r="B10" s="216"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="218"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="207"/>
     </row>
     <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10369,22 +10384,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>86</v>
-      </c>
       <c r="D14" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="103"/>
+        <v>51</v>
+      </c>
+      <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:11" ht="14">
       <c r="A15" s="14">
@@ -10392,23 +10407,23 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>88</v>
-      </c>
       <c r="D15" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="102"/>
-      <c r="K15" s="105"/>
+        <v>90</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="K15" s="102"/>
     </row>
     <row r="16" spans="1:11" ht="16">
       <c r="A16" s="14">
@@ -10416,21 +10431,21 @@
         <v>3</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="104"/>
-      <c r="K16" s="105"/>
+      <c r="H16" s="101"/>
+      <c r="K16" s="102"/>
     </row>
     <row r="17" spans="1:11" ht="13">
       <c r="A17" s="14">
@@ -10438,13 +10453,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>81</v>
-      </c>
       <c r="D17" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>3</v>
@@ -10453,32 +10468,32 @@
         <v>4</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="105"/>
+        <v>81</v>
+      </c>
+      <c r="K17" s="102"/>
     </row>
     <row r="18" spans="1:11" ht="13">
-      <c r="A18" s="109">
+      <c r="A18" s="106">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="D18" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="105"/>
+      <c r="K18" s="102"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="14">
@@ -10489,10 +10504,10 @@
         <v>42</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>3</v>
@@ -10512,7 +10527,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="66" t="s">
         <v>3</v>
@@ -10531,8 +10546,8 @@
       <c r="C21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="69" t="s">
-        <v>62</v>
+      <c r="D21" s="68" t="s">
+        <v>61</v>
       </c>
       <c r="E21" s="45" t="s">
         <v>3</v>
@@ -10541,7 +10556,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12" thickBot="1">
@@ -10556,10 +10571,10 @@
       <c r="B24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="207" t="s">
+      <c r="C24" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="208"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -10577,10 +10592,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="219" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="220"/>
+      <c r="C25" s="208" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="209"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -10594,10 +10609,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="252" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="253"/>
+      <c r="C26" s="241" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="242"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -10616,14 +10631,14 @@
       <c r="B29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="200" t="s">
+      <c r="C29" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="201"/>
-      <c r="E29" s="200" t="s">
+      <c r="D29" s="190"/>
+      <c r="E29" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="202"/>
+      <c r="F29" s="191"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -10640,14 +10655,14 @@
       <c r="B32" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="200" t="s">
+      <c r="C32" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="201"/>
-      <c r="E32" s="200" t="s">
+      <c r="D32" s="190"/>
+      <c r="E32" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="202"/>
+      <c r="F32" s="191"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -10657,16 +10672,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="250" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="251"/>
-      <c r="E33" s="252" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="253"/>
+      <c r="C33" s="239" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="240"/>
+      <c r="E33" s="241" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="242"/>
       <c r="G33" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -10739,105 +10754,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="226"/>
+      <c r="D2" s="215"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="221" t="s">
+      <c r="F2" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="222"/>
+      <c r="G2" s="211"/>
     </row>
     <row r="3" spans="1:7" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="227"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="225" t="s">
+      <c r="F3" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="224"/>
+      <c r="G3" s="213"/>
     </row>
     <row r="4" spans="1:7" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="225" t="s">
+      <c r="C4" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="227"/>
+      <c r="D4" s="216"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="225"/>
-      <c r="G4" s="224"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="213"/>
     </row>
     <row r="5" spans="1:7" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="225" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="227"/>
+      <c r="C5" s="214" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="216"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="224"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="213"/>
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="225" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="227"/>
+      <c r="C6" s="214" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="216"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="213"/>
     </row>
     <row r="7" spans="1:7" ht="13">
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="211"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="200"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="212" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="214"/>
+      <c r="B8" s="201" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="203"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="215"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="203"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1">
-      <c r="B10" s="216"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="218"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="207"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10872,20 +10887,20 @@
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>55</v>
+      <c r="D14" s="74" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -10894,13 +10909,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="61" t="s">
-        <v>86</v>
-      </c>
       <c r="D15" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>3</v>
@@ -10914,13 +10929,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="62" t="s">
-        <v>79</v>
-      </c>
       <c r="D16" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>3</v>
@@ -10942,10 +10957,10 @@
       <c r="B19" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="207" t="s">
+      <c r="C19" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="208"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -10963,10 +10978,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="219" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="220"/>
+      <c r="C20" s="208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="209"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -10980,10 +10995,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="250" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="251"/>
+      <c r="C21" s="239" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="240"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -11002,14 +11017,14 @@
       <c r="B24" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="200" t="s">
+      <c r="C24" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="201"/>
-      <c r="E24" s="200" t="s">
+      <c r="D24" s="190"/>
+      <c r="E24" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="202"/>
+      <c r="F24" s="191"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -11026,14 +11041,14 @@
       <c r="B27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="200" t="s">
+      <c r="C27" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="201"/>
-      <c r="E27" s="200" t="s">
+      <c r="D27" s="190"/>
+      <c r="E27" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="202"/>
+      <c r="F27" s="191"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -11043,10 +11058,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="251"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="253"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="240"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="242"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>

--- a/doc/detail_design/db/MCS_Database_Design.xlsx
+++ b/doc/detail_design/db/MCS_Database_Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="-19460" windowWidth="29020" windowHeight="16540" tabRatio="818" activeTab="3"/>
+    <workbookView xWindow="4260" yWindow="-19460" windowWidth="29020" windowHeight="16540" tabRatio="818" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -8178,7 +8178,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -8223,7 +8223,7 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView topLeftCell="B6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -8703,7 +8703,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="247" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="E24" s="248" t="s">
         <v>3</v>
@@ -9394,8 +9394,8 @@
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -9758,7 +9758,7 @@
         <v>128</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" s="253"/>
       <c r="G18" s="84"/>

--- a/doc/detail_design/db/MCS_Database_Design.xlsx
+++ b/doc/detail_design/db/MCS_Database_Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="-19460" windowWidth="29020" windowHeight="16540" tabRatio="818" activeTab="6"/>
+    <workbookView xWindow="1180" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="818" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -14,115 +14,131 @@
     <sheet name="user" sheetId="5" r:id="rId5"/>
     <sheet name="article" sheetId="21" r:id="rId6"/>
     <sheet name="x_user_article" sheetId="26" r:id="rId7"/>
-    <sheet name="edition" sheetId="36" state="hidden" r:id="rId8"/>
-    <sheet name="x_edition_version" sheetId="37" state="hidden" r:id="rId9"/>
-    <sheet name="ranking(deleted)" sheetId="20" state="hidden" r:id="rId10"/>
+    <sheet name="login_session" sheetId="65" r:id="rId8"/>
+    <sheet name="edition" sheetId="36" state="hidden" r:id="rId9"/>
+    <sheet name="x_edition_version" sheetId="37" state="hidden" r:id="rId10"/>
+    <sheet name="ranking(deleted)" sheetId="20" state="hidden" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="⑫画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="8">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="3">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="7">#REF!</definedName>
-    <definedName name="⑫画面" localSheetId="3">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="10">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="9">#REF!</definedName>
-    <definedName name="⑫画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="6">#REF!</definedName>
     <definedName name="⑫画面">#REF!</definedName>
     <definedName name="②画面" localSheetId="5">#REF!</definedName>
+    <definedName name="②画面" localSheetId="8">#REF!</definedName>
+    <definedName name="②画面" localSheetId="3">#REF!</definedName>
     <definedName name="②画面" localSheetId="7">#REF!</definedName>
-    <definedName name="②画面" localSheetId="3">#REF!</definedName>
+    <definedName name="②画面" localSheetId="10">#REF!</definedName>
     <definedName name="②画面" localSheetId="9">#REF!</definedName>
-    <definedName name="②画面" localSheetId="8">#REF!</definedName>
     <definedName name="②画面" localSheetId="6">#REF!</definedName>
     <definedName name="②画面">#REF!</definedName>
     <definedName name="③画面" localSheetId="5">#REF!</definedName>
+    <definedName name="③画面" localSheetId="8">#REF!</definedName>
+    <definedName name="③画面" localSheetId="3">#REF!</definedName>
     <definedName name="③画面" localSheetId="7">#REF!</definedName>
-    <definedName name="③画面" localSheetId="3">#REF!</definedName>
+    <definedName name="③画面" localSheetId="10">#REF!</definedName>
     <definedName name="③画面" localSheetId="9">#REF!</definedName>
-    <definedName name="③画面" localSheetId="8">#REF!</definedName>
     <definedName name="③画面" localSheetId="6">#REF!</definedName>
     <definedName name="③画面">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="8">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="3">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="7">#REF!</definedName>
-    <definedName name="⑤画面" localSheetId="3">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="10">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="9">#REF!</definedName>
-    <definedName name="⑤画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="6">#REF!</definedName>
     <definedName name="⑤画面">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="8">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="3">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="7">#REF!</definedName>
-    <definedName name="⑧画面" localSheetId="3">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="10">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="9">#REF!</definedName>
-    <definedName name="⑧画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="6">#REF!</definedName>
     <definedName name="⑧画面">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="8">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="3">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="7">#REF!</definedName>
-    <definedName name="⑨画面" localSheetId="3">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="10">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="9">#REF!</definedName>
-    <definedName name="⑨画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="6">#REF!</definedName>
     <definedName name="⑨画面">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="8">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="3">#REF!</definedName>
     <definedName name="AAAAAA" localSheetId="7">#REF!</definedName>
-    <definedName name="AAAAAA" localSheetId="3">#REF!</definedName>
-    <definedName name="AAAAAA" localSheetId="8">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="9">#REF!</definedName>
     <definedName name="AAAAAA" localSheetId="6">#REF!</definedName>
     <definedName name="AAAAAA">#REF!</definedName>
+    <definedName name="as" localSheetId="8">#REF!</definedName>
+    <definedName name="as" localSheetId="3">#REF!</definedName>
     <definedName name="as" localSheetId="7">#REF!</definedName>
-    <definedName name="as" localSheetId="3">#REF!</definedName>
-    <definedName name="as" localSheetId="8">#REF!</definedName>
+    <definedName name="as" localSheetId="9">#REF!</definedName>
     <definedName name="as" localSheetId="6">#REF!</definedName>
     <definedName name="as">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="8">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="3">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="7">#REF!</definedName>
-    <definedName name="ｄｄｄｄ" localSheetId="3">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="10">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="9">#REF!</definedName>
-    <definedName name="ｄｄｄｄ" localSheetId="8">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="6">#REF!</definedName>
     <definedName name="ｄｄｄｄ">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="8">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="3">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="7">#REF!</definedName>
-    <definedName name="ｄｄｄｄｄ" localSheetId="3">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="10">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="9">#REF!</definedName>
-    <definedName name="ｄｄｄｄｄ" localSheetId="8">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="6">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ">#REF!</definedName>
     <definedName name="MySQL_DataType">[1]データタイプ!$B$2:$B$36</definedName>
     <definedName name="Oracle_DataType">[1]データタイプ!$A$2:$A$24</definedName>
     <definedName name="あ" localSheetId="5">#REF!</definedName>
+    <definedName name="あ" localSheetId="8">#REF!</definedName>
+    <definedName name="あ" localSheetId="3">#REF!</definedName>
     <definedName name="あ" localSheetId="7">#REF!</definedName>
-    <definedName name="あ" localSheetId="3">#REF!</definedName>
+    <definedName name="あ" localSheetId="10">#REF!</definedName>
     <definedName name="あ" localSheetId="9">#REF!</definedName>
-    <definedName name="あ" localSheetId="8">#REF!</definedName>
     <definedName name="あ" localSheetId="6">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
     <definedName name="ステータス" localSheetId="5">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="8">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="3">#REF!</definedName>
     <definedName name="ステータス" localSheetId="7">#REF!</definedName>
-    <definedName name="ステータス" localSheetId="3">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="10">#REF!</definedName>
     <definedName name="ステータス" localSheetId="9">#REF!</definedName>
-    <definedName name="ステータス" localSheetId="8">#REF!</definedName>
     <definedName name="ステータス" localSheetId="6">#REF!</definedName>
     <definedName name="ステータス">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="5">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="8">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="3">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="7">#REF!</definedName>
-    <definedName name="画面一覧" localSheetId="3">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="10">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="9">#REF!</definedName>
-    <definedName name="画面一覧" localSheetId="8">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="6">#REF!</definedName>
     <definedName name="画面一覧">#REF!</definedName>
     <definedName name="項番17" localSheetId="5">#REF!</definedName>
+    <definedName name="項番17" localSheetId="8">#REF!</definedName>
+    <definedName name="項番17" localSheetId="3">#REF!</definedName>
     <definedName name="項番17" localSheetId="7">#REF!</definedName>
-    <definedName name="項番17" localSheetId="3">#REF!</definedName>
+    <definedName name="項番17" localSheetId="10">#REF!</definedName>
     <definedName name="項番17" localSheetId="9">#REF!</definedName>
-    <definedName name="項番17" localSheetId="8">#REF!</definedName>
     <definedName name="項番17" localSheetId="6">#REF!</definedName>
     <definedName name="項番17">#REF!</definedName>
     <definedName name="項番3" localSheetId="5">#REF!</definedName>
+    <definedName name="項番3" localSheetId="8">#REF!</definedName>
+    <definedName name="項番3" localSheetId="3">#REF!</definedName>
     <definedName name="項番3" localSheetId="7">#REF!</definedName>
-    <definedName name="項番3" localSheetId="3">#REF!</definedName>
+    <definedName name="項番3" localSheetId="10">#REF!</definedName>
     <definedName name="項番3" localSheetId="9">#REF!</definedName>
-    <definedName name="項番3" localSheetId="8">#REF!</definedName>
     <definedName name="項番3" localSheetId="6">#REF!</definedName>
     <definedName name="項番3">#REF!</definedName>
   </definedNames>
@@ -136,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="190">
   <si>
     <t>No</t>
   </si>
@@ -695,6 +711,21 @@
   </si>
   <si>
     <t>Moi</t>
+  </si>
+  <si>
+    <t>Login session data</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>login_session</t>
+  </si>
+  <si>
+    <t>Ref system ID.</t>
+  </si>
+  <si>
+    <t>encrypt format =  "secrectkey@access_id@player_id@Date(UNIX TIME)"</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1961,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="441">
+  <cellStyleXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3251,8 +3282,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3766,6 +3803,39 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3776,12 +3846,75 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3797,67 +3930,22 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3890,30 +3978,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3926,6 +3990,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3944,41 +4014,26 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="441">
+  <cellStyles count="443">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -4412,6 +4467,8 @@
     <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ハイパーリンク 2" xfId="4"/>
@@ -5714,29 +5771,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="185"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="185"/>
-      <c r="R13" s="185"/>
-      <c r="S13" s="185"/>
-      <c r="T13" s="185"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="185"/>
-      <c r="X13" s="185"/>
-      <c r="Y13" s="185"/>
-      <c r="Z13" s="185"/>
-      <c r="AA13" s="185"/>
-      <c r="AB13" s="185"/>
-      <c r="AC13" s="185"/>
-      <c r="AD13" s="185"/>
-      <c r="AE13" s="185"/>
-      <c r="AF13" s="185"/>
-      <c r="AG13" s="185"/>
-      <c r="AH13" s="185"/>
-      <c r="AI13" s="185"/>
-      <c r="AJ13" s="185"/>
-      <c r="AK13" s="185"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="196"/>
+      <c r="R13" s="196"/>
+      <c r="S13" s="196"/>
+      <c r="T13" s="196"/>
+      <c r="U13" s="196"/>
+      <c r="V13" s="196"/>
+      <c r="W13" s="196"/>
+      <c r="X13" s="196"/>
+      <c r="Y13" s="196"/>
+      <c r="Z13" s="196"/>
+      <c r="AA13" s="196"/>
+      <c r="AB13" s="196"/>
+      <c r="AC13" s="196"/>
+      <c r="AD13" s="196"/>
+      <c r="AE13" s="196"/>
+      <c r="AF13" s="196"/>
+      <c r="AG13" s="196"/>
+      <c r="AH13" s="196"/>
+      <c r="AI13" s="196"/>
+      <c r="AJ13" s="196"/>
+      <c r="AK13" s="196"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5768,29 +5825,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="185"/>
-      <c r="Q14" s="185"/>
-      <c r="R14" s="185"/>
-      <c r="S14" s="185"/>
-      <c r="T14" s="185"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="185"/>
-      <c r="AF14" s="185"/>
-      <c r="AG14" s="185"/>
-      <c r="AH14" s="185"/>
-      <c r="AI14" s="185"/>
-      <c r="AJ14" s="185"/>
-      <c r="AK14" s="185"/>
+      <c r="O14" s="196"/>
+      <c r="P14" s="196"/>
+      <c r="Q14" s="196"/>
+      <c r="R14" s="196"/>
+      <c r="S14" s="196"/>
+      <c r="T14" s="196"/>
+      <c r="U14" s="196"/>
+      <c r="V14" s="196"/>
+      <c r="W14" s="196"/>
+      <c r="X14" s="196"/>
+      <c r="Y14" s="196"/>
+      <c r="Z14" s="196"/>
+      <c r="AA14" s="196"/>
+      <c r="AB14" s="196"/>
+      <c r="AC14" s="196"/>
+      <c r="AD14" s="196"/>
+      <c r="AE14" s="196"/>
+      <c r="AF14" s="196"/>
+      <c r="AG14" s="196"/>
+      <c r="AH14" s="196"/>
+      <c r="AI14" s="196"/>
+      <c r="AJ14" s="196"/>
+      <c r="AK14" s="196"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5818,43 +5875,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="186" t="s">
+      <c r="K15" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="186"/>
-      <c r="M15" s="186"/>
-      <c r="N15" s="186"/>
-      <c r="O15" s="186"/>
-      <c r="P15" s="186"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="186"/>
-      <c r="S15" s="186"/>
-      <c r="T15" s="186"/>
-      <c r="U15" s="186"/>
-      <c r="V15" s="186"/>
-      <c r="W15" s="186"/>
-      <c r="X15" s="186"/>
-      <c r="Y15" s="186"/>
-      <c r="Z15" s="186"/>
-      <c r="AA15" s="186"/>
-      <c r="AB15" s="186"/>
-      <c r="AC15" s="186"/>
-      <c r="AD15" s="186"/>
-      <c r="AE15" s="186"/>
-      <c r="AF15" s="186"/>
-      <c r="AG15" s="186"/>
-      <c r="AH15" s="186"/>
-      <c r="AI15" s="186"/>
-      <c r="AJ15" s="186"/>
-      <c r="AK15" s="186"/>
-      <c r="AL15" s="186"/>
-      <c r="AM15" s="186"/>
-      <c r="AN15" s="186"/>
-      <c r="AO15" s="186"/>
-      <c r="AP15" s="186"/>
-      <c r="AQ15" s="186"/>
-      <c r="AR15" s="186"/>
-      <c r="AS15" s="186"/>
+      <c r="L15" s="197"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="197"/>
+      <c r="R15" s="197"/>
+      <c r="S15" s="197"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="197"/>
+      <c r="Z15" s="197"/>
+      <c r="AA15" s="197"/>
+      <c r="AB15" s="197"/>
+      <c r="AC15" s="197"/>
+      <c r="AD15" s="197"/>
+      <c r="AE15" s="197"/>
+      <c r="AF15" s="197"/>
+      <c r="AG15" s="197"/>
+      <c r="AH15" s="197"/>
+      <c r="AI15" s="197"/>
+      <c r="AJ15" s="197"/>
+      <c r="AK15" s="197"/>
+      <c r="AL15" s="197"/>
+      <c r="AM15" s="197"/>
+      <c r="AN15" s="197"/>
+      <c r="AO15" s="197"/>
+      <c r="AP15" s="197"/>
+      <c r="AQ15" s="197"/>
+      <c r="AR15" s="197"/>
+      <c r="AS15" s="197"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5874,41 +5931,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="186"/>
-      <c r="M16" s="186"/>
-      <c r="N16" s="186"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="186"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="186"/>
-      <c r="S16" s="186"/>
-      <c r="T16" s="186"/>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="186"/>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="186"/>
-      <c r="Z16" s="186"/>
-      <c r="AA16" s="186"/>
-      <c r="AB16" s="186"/>
-      <c r="AC16" s="186"/>
-      <c r="AD16" s="186"/>
-      <c r="AE16" s="186"/>
-      <c r="AF16" s="186"/>
-      <c r="AG16" s="186"/>
-      <c r="AH16" s="186"/>
-      <c r="AI16" s="186"/>
-      <c r="AJ16" s="186"/>
-      <c r="AK16" s="186"/>
-      <c r="AL16" s="186"/>
-      <c r="AM16" s="186"/>
-      <c r="AN16" s="186"/>
-      <c r="AO16" s="186"/>
-      <c r="AP16" s="186"/>
-      <c r="AQ16" s="186"/>
-      <c r="AR16" s="186"/>
-      <c r="AS16" s="186"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="197"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="197"/>
+      <c r="AG16" s="197"/>
+      <c r="AH16" s="197"/>
+      <c r="AI16" s="197"/>
+      <c r="AJ16" s="197"/>
+      <c r="AK16" s="197"/>
+      <c r="AL16" s="197"/>
+      <c r="AM16" s="197"/>
+      <c r="AN16" s="197"/>
+      <c r="AO16" s="197"/>
+      <c r="AP16" s="197"/>
+      <c r="AQ16" s="197"/>
+      <c r="AR16" s="197"/>
+      <c r="AS16" s="197"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6497,14 +6554,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="187">
+      <c r="AN27" s="198">
         <v>41922</v>
       </c>
-      <c r="AO27" s="187"/>
-      <c r="AP27" s="187"/>
-      <c r="AQ27" s="187"/>
-      <c r="AR27" s="187"/>
-      <c r="AS27" s="187"/>
+      <c r="AO27" s="198"/>
+      <c r="AP27" s="198"/>
+      <c r="AQ27" s="198"/>
+      <c r="AR27" s="198"/>
+      <c r="AS27" s="198"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -6966,6 +7023,386 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF008000"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="12" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13">
+      <c r="B2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="200" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="201"/>
+      <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="200" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="204"/>
+    </row>
+    <row r="3" spans="1:7" ht="13">
+      <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="202" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="206"/>
+    </row>
+    <row r="4" spans="1:7" ht="13">
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="202" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="203"/>
+      <c r="E4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="202"/>
+      <c r="G4" s="206"/>
+    </row>
+    <row r="5" spans="1:7" ht="13">
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="202" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="203"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="206"/>
+    </row>
+    <row r="6" spans="1:7" ht="13">
+      <c r="B6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="202" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="203"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="206"/>
+    </row>
+    <row r="7" spans="1:7" ht="13">
+      <c r="B7" s="211" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="213"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="214" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="216"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="217"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="216"/>
+    </row>
+    <row r="10" spans="1:7" ht="12" thickBot="1">
+      <c r="B10" s="218"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="220"/>
+    </row>
+    <row r="12" spans="1:7" ht="12" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="15">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="12" thickBot="1">
+      <c r="A16" s="16">
+        <f t="shared" ref="A16" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="12" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="207" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="208"/>
+      <c r="E19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13">
+      <c r="A20" s="14">
+        <v>1</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="222"/>
+      <c r="E20" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="14" thickBot="1">
+      <c r="A21" s="16">
+        <v>2</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="250" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="251"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="23" spans="1:7" ht="12" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14" thickBot="1">
+      <c r="A24" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="209" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="210"/>
+      <c r="E24" s="209" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="223"/>
+      <c r="G24" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14" thickBot="1">
+      <c r="A27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="209" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="210"/>
+      <c r="E27" s="209" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="223"/>
+      <c r="G27" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14" thickBot="1">
+      <c r="A28" s="16">
+        <v>1</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="253"/>
+      <c r="G28" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6994,103 +7431,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="215"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="243" t="s">
+      <c r="F2" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="244"/>
+      <c r="G2" s="255"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="216"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="212" t="s">
+      <c r="F3" s="205" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="213"/>
+      <c r="G3" s="206"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="216"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="214"/>
-      <c r="G4" s="213"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="206"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="214" t="s">
+      <c r="C5" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="216"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="213"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="206"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="202" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="216"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="213"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="206"/>
     </row>
     <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="200"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="213"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="201"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="203"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="216"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="204"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="203"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="216"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="205"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="207"/>
+      <c r="B10" s="218"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="220"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="113"/>
@@ -7306,10 +7743,10 @@
       <c r="B21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="196" t="s">
+      <c r="C21" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="197"/>
+      <c r="D21" s="208"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -7333,10 +7770,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="208" t="s">
+      <c r="C22" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="209"/>
+      <c r="D22" s="222"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -7356,10 +7793,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="194" t="s">
+      <c r="C23" s="226" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="195"/>
+      <c r="D23" s="227"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -7377,10 +7814,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="239" t="s">
+      <c r="C24" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="240"/>
+      <c r="D24" s="251"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -7419,14 +7856,14 @@
       <c r="B27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="189" t="s">
+      <c r="C27" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="190"/>
-      <c r="E27" s="189" t="s">
+      <c r="D27" s="210"/>
+      <c r="E27" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="191"/>
+      <c r="F27" s="223"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -7463,14 +7900,14 @@
       <c r="B30" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="189" t="s">
+      <c r="C30" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="190"/>
-      <c r="E30" s="189" t="s">
+      <c r="D30" s="210"/>
+      <c r="E30" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="191"/>
+      <c r="F30" s="223"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -7486,14 +7923,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="208" t="s">
+      <c r="C31" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="209"/>
-      <c r="E31" s="194" t="s">
+      <c r="D31" s="222"/>
+      <c r="E31" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="195"/>
+      <c r="F31" s="227"/>
       <c r="G31" s="53" t="s">
         <v>78</v>
       </c>
@@ -7509,14 +7946,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="221" t="s">
+      <c r="C32" s="238" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="222"/>
-      <c r="E32" s="241" t="s">
+      <c r="D32" s="239"/>
+      <c r="E32" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="242"/>
+      <c r="F32" s="253"/>
       <c r="G32" s="55" t="s">
         <v>53</v>
       </c>
@@ -7569,14 +8006,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C31:D31"/>
@@ -7593,6 +8022,14 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7911,11 +8348,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
     </row>
     <row r="2" spans="1:3" ht="12" thickBot="1">
       <c r="A2" s="166" t="s">
@@ -7935,7 +8372,7 @@
       <c r="B3" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="245" t="s">
+      <c r="C3" s="185" t="s">
         <v>110</v>
       </c>
     </row>
@@ -8190,11 +8627,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="199" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8222,7 +8659,7 @@
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -8253,103 +8690,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="215"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="210" t="s">
+      <c r="F2" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="211"/>
+      <c r="G2" s="204"/>
     </row>
     <row r="3" spans="1:19" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="216"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="212" t="s">
+      <c r="F3" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="213"/>
+      <c r="G3" s="206"/>
     </row>
     <row r="4" spans="1:19" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="216"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="214"/>
-      <c r="G4" s="213"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="206"/>
     </row>
     <row r="5" spans="1:19" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="214" t="s">
+      <c r="C5" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="216"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="213"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="206"/>
     </row>
     <row r="6" spans="1:19" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="216"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="213"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="206"/>
     </row>
     <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="200"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="213"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="201"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="203"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="216"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="204"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="203"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="216"/>
     </row>
     <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="205"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="207"/>
+      <c r="B10" s="218"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="220"/>
     </row>
     <row r="12" spans="1:19" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8451,7 +8888,7 @@
       <c r="M14" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="N14" s="255" t="s">
+      <c r="N14" s="195" t="s">
         <v>179</v>
       </c>
       <c r="O14" s="13" t="s">
@@ -8507,7 +8944,7 @@
       <c r="M15" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N15" s="255" t="s">
+      <c r="N15" s="195" t="s">
         <v>182</v>
       </c>
       <c r="O15" s="13" t="s">
@@ -8696,22 +9133,22 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="246" t="s">
+      <c r="B24" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="247" t="s">
+      <c r="C24" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="247" t="s">
+      <c r="D24" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="248" t="s">
+      <c r="E24" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="250" t="s">
+      <c r="F24" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="249" t="s">
+      <c r="G24" s="189" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8727,10 +9164,10 @@
       <c r="B27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="196" t="s">
+      <c r="C27" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="197"/>
+      <c r="D27" s="208"/>
       <c r="E27" s="34" t="s">
         <v>33</v>
       </c>
@@ -8748,10 +9185,10 @@
       <c r="B28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="208" t="s">
+      <c r="C28" s="221" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="209"/>
+      <c r="D28" s="222"/>
       <c r="E28" s="46" t="s">
         <v>3</v>
       </c>
@@ -8765,10 +9202,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="51"/>
-      <c r="C29" s="194" t="s">
+      <c r="C29" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="195"/>
+      <c r="D29" s="227"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52" t="s">
         <v>3</v>
@@ -8780,8 +9217,8 @@
         <v>3</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="193"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
       <c r="G30" s="55"/>
@@ -8798,14 +9235,14 @@
       <c r="B33" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="189" t="s">
+      <c r="C33" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="190"/>
-      <c r="E33" s="189" t="s">
+      <c r="D33" s="210"/>
+      <c r="E33" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="191"/>
+      <c r="F33" s="223"/>
       <c r="G33" s="38" t="s">
         <v>38</v>
       </c>
@@ -8822,40 +9259,40 @@
       <c r="B36" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="189" t="s">
+      <c r="C36" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="190"/>
-      <c r="E36" s="189" t="s">
+      <c r="D36" s="210"/>
+      <c r="E36" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="191"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8883,8 +9320,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -8919,108 +9356,108 @@
       <c r="B2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="215"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="210" t="s">
+      <c r="F2" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="211"/>
+      <c r="G2" s="204"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="A3" s="94"/>
       <c r="B3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="216"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="212" t="s">
+      <c r="F3" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="213"/>
+      <c r="G3" s="206"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="A4" s="94"/>
       <c r="B4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="216"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="214"/>
-      <c r="G4" s="213"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="206"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="A5" s="94"/>
       <c r="B5" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="227" t="s">
+      <c r="C5" s="228" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="228"/>
+      <c r="D5" s="229"/>
       <c r="E5" s="97"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="229"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="230"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="A6" s="94"/>
       <c r="B6" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="227" t="s">
+      <c r="C6" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="228"/>
+      <c r="D6" s="229"/>
       <c r="E6" s="98"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="229"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="230"/>
     </row>
     <row r="7" spans="1:14" ht="13">
       <c r="A7" s="94"/>
-      <c r="B7" s="230" t="s">
+      <c r="B7" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="232"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
+      <c r="G7" s="233"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="201"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="203"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="216"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="204"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="203"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="216"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="205"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="207"/>
+      <c r="B10" s="218"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="220"/>
     </row>
     <row r="12" spans="1:14" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9213,22 +9650,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="246" t="s">
+      <c r="B19" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="247" t="s">
+      <c r="C19" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="247" t="s">
+      <c r="D19" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="248" t="s">
+      <c r="E19" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="250" t="s">
+      <c r="F19" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="249" t="s">
+      <c r="G19" s="189" t="s">
         <v>171</v>
       </c>
     </row>
@@ -9244,10 +9681,10 @@
       <c r="B22" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="196" t="s">
+      <c r="C22" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="197"/>
+      <c r="D22" s="208"/>
       <c r="E22" s="34" t="s">
         <v>33</v>
       </c>
@@ -9265,10 +9702,10 @@
       <c r="B23" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="221" t="s">
+      <c r="C23" s="238" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="222"/>
+      <c r="D23" s="239"/>
       <c r="E23" s="58" t="s">
         <v>3</v>
       </c>
@@ -9289,14 +9726,14 @@
       <c r="B26" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="189" t="s">
+      <c r="C26" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="190"/>
-      <c r="E26" s="189" t="s">
+      <c r="D26" s="210"/>
+      <c r="E26" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="191"/>
+      <c r="F26" s="223"/>
       <c r="G26" s="38" t="s">
         <v>38</v>
       </c>
@@ -9306,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="144"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="225"/>
-      <c r="F27" s="226"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="243"/>
       <c r="G27" s="145"/>
     </row>
     <row r="28" spans="1:7" ht="14" thickBot="1">
@@ -9317,10 +9754,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="147"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="220"/>
+      <c r="C28" s="234"/>
+      <c r="D28" s="235"/>
+      <c r="E28" s="236"/>
+      <c r="F28" s="237"/>
       <c r="G28" s="148"/>
     </row>
     <row r="30" spans="1:7" ht="12" thickBot="1">
@@ -9335,31 +9772,20 @@
       <c r="B31" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="189" t="s">
+      <c r="C31" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="190"/>
-      <c r="E31" s="189" t="s">
+      <c r="D31" s="210"/>
+      <c r="E31" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="191"/>
+      <c r="F31" s="223"/>
       <c r="G31" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C28:D28"/>
@@ -9371,6 +9797,17 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9394,8 +9831,8 @@
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -9404,7 +9841,7 @@
     <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
     <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="251" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="191" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
     <col min="8" max="10" width="8.83203125" style="13"/>
     <col min="11" max="11" width="11" style="13" customWidth="1"/>
@@ -9424,103 +9861,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="215"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="210" t="s">
+      <c r="F2" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="211"/>
+      <c r="G2" s="204"/>
     </row>
     <row r="3" spans="1:15" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="216"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="212" t="s">
+      <c r="F3" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="213"/>
+      <c r="G3" s="206"/>
     </row>
     <row r="4" spans="1:15" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="216"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="214"/>
-      <c r="G4" s="213"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="206"/>
     </row>
     <row r="5" spans="1:15" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="214" t="s">
+      <c r="C5" s="202" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="216"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="213"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="206"/>
     </row>
     <row r="6" spans="1:15" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="216"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="213"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="206"/>
     </row>
     <row r="7" spans="1:15" ht="13">
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="200"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="213"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="201"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="203"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="216"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="204"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="203"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="216"/>
     </row>
     <row r="10" spans="1:15" ht="12" thickBot="1">
-      <c r="B10" s="205"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="207"/>
+      <c r="B10" s="218"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="220"/>
     </row>
     <row r="12" spans="1:15" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9590,7 +10027,7 @@
       <c r="E14" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="252"/>
+      <c r="F14" s="192"/>
       <c r="G14" s="77" t="s">
         <v>51</v>
       </c>
@@ -9633,7 +10070,7 @@
       <c r="E15" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="253"/>
+      <c r="F15" s="193"/>
       <c r="G15" s="84"/>
       <c r="I15" s="13">
         <v>2</v>
@@ -9674,7 +10111,7 @@
       <c r="E16" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="253"/>
+      <c r="F16" s="193"/>
       <c r="G16" s="84"/>
       <c r="I16" s="13">
         <v>3</v>
@@ -9715,7 +10152,7 @@
       <c r="E17" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="253" t="s">
+      <c r="F17" s="193" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="84" t="s">
@@ -9760,7 +10197,7 @@
       <c r="E18" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="253"/>
+      <c r="F18" s="193"/>
       <c r="G18" s="84"/>
       <c r="I18" s="13">
         <v>5</v>
@@ -9801,7 +10238,7 @@
       <c r="E19" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="253"/>
+      <c r="F19" s="193"/>
       <c r="G19" s="84"/>
       <c r="I19" s="13">
         <v>6</v>
@@ -9842,7 +10279,7 @@
       <c r="E20" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="253"/>
+      <c r="F20" s="193"/>
       <c r="G20" s="84"/>
       <c r="I20" s="13">
         <v>7</v>
@@ -9857,7 +10294,7 @@
       <c r="C21" s="86"/>
       <c r="D21" s="68"/>
       <c r="E21" s="87"/>
-      <c r="F21" s="254"/>
+      <c r="F21" s="194"/>
       <c r="G21" s="150"/>
     </row>
     <row r="23" spans="1:15" ht="12" thickBot="1">
@@ -9872,10 +10309,10 @@
       <c r="B24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="196" t="s">
+      <c r="C24" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="197"/>
+      <c r="D24" s="208"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -9893,10 +10330,10 @@
       <c r="B25" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="237" t="s">
+      <c r="C25" s="246" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="238"/>
+      <c r="D25" s="247"/>
       <c r="E25" s="90" t="s">
         <v>3</v>
       </c>
@@ -9931,8 +10368,8 @@
         <v>2</v>
       </c>
       <c r="B26" s="68"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="234"/>
+      <c r="C26" s="248"/>
+      <c r="D26" s="249"/>
       <c r="E26" s="69"/>
       <c r="F26" s="69"/>
       <c r="G26" s="70"/>
@@ -10014,14 +10451,14 @@
       <c r="B29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="189" t="s">
+      <c r="C29" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="190"/>
-      <c r="E29" s="189" t="s">
+      <c r="D29" s="210"/>
+      <c r="E29" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="191"/>
+      <c r="F29" s="223"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -10052,14 +10489,14 @@
         <v>1</v>
       </c>
       <c r="B30" s="19"/>
-      <c r="C30" s="208" t="s">
+      <c r="C30" s="221" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="209"/>
-      <c r="E30" s="235" t="s">
+      <c r="D30" s="222"/>
+      <c r="E30" s="244" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="236"/>
+      <c r="F30" s="245"/>
       <c r="G30" s="20" t="s">
         <v>152</v>
       </c>
@@ -10090,14 +10527,14 @@
         <v>2</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="194" t="s">
+      <c r="C31" s="226" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="195"/>
-      <c r="E31" s="194" t="s">
+      <c r="D31" s="227"/>
+      <c r="E31" s="226" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="195"/>
+      <c r="F31" s="227"/>
       <c r="G31" s="53" t="s">
         <v>152</v>
       </c>
@@ -10128,10 +10565,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="161"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="193"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="225"/>
       <c r="G32" s="162"/>
       <c r="I32" s="13">
         <v>8</v>
@@ -10167,20 +10604,29 @@
       <c r="B35" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="189" t="s">
+      <c r="C35" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="190"/>
-      <c r="E35" s="189" t="s">
+      <c r="D35" s="210"/>
+      <c r="E35" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="191"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C35:D35"/>
@@ -10197,15 +10643,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10223,6 +10660,525 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFFF00"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="13"/>
+    <col min="11" max="11" width="19.33203125" style="13" customWidth="1"/>
+    <col min="12" max="13" width="17" style="13" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="12" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="13">
+      <c r="B2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="200" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="201"/>
+      <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="200" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="204"/>
+    </row>
+    <row r="3" spans="1:14" ht="13">
+      <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="205" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="206"/>
+    </row>
+    <row r="4" spans="1:14" ht="13">
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="202" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="203"/>
+      <c r="E4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="202"/>
+      <c r="G4" s="206"/>
+    </row>
+    <row r="5" spans="1:14" ht="13">
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="202" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="203"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="206"/>
+    </row>
+    <row r="6" spans="1:14" ht="13">
+      <c r="B6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="202" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="203"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="206"/>
+    </row>
+    <row r="7" spans="1:14" ht="13">
+      <c r="B7" s="211" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="213"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="214"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="216"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="217"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="216"/>
+    </row>
+    <row r="10" spans="1:14" ht="12" thickBot="1">
+      <c r="B10" s="218"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="220"/>
+    </row>
+    <row r="12" spans="1:14" ht="12" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="178" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="178" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="178" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="178" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="178" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="71">
+        <v>1</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="113"/>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="L14" s="175">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="M14" s="175">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="N14" s="175">
+        <v>41922.465277777781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="59">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="259" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="152" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="113"/>
+      <c r="I15" s="13">
+        <v>2</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="L15" s="175">
+        <v>41922.46875</v>
+      </c>
+      <c r="M15" s="175">
+        <v>41922.46875</v>
+      </c>
+      <c r="N15" s="175">
+        <v>41922.46875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="33">
+      <c r="A16" s="59">
+        <f t="shared" ref="A16:A19" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="184" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="149"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="149" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12" thickBot="1">
+      <c r="A19" s="72">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="256" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="257"/>
+      <c r="G19" s="258"/>
+    </row>
+    <row r="21" spans="1:7" ht="12" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="207" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="208"/>
+      <c r="E22" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13">
+      <c r="A23" s="14">
+        <v>1</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="221" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="222"/>
+      <c r="E23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="13" customHeight="1">
+      <c r="A24" s="57">
+        <v>2</v>
+      </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+    </row>
+    <row r="25" spans="1:7" ht="13" customHeight="1" thickBot="1">
+      <c r="A25" s="56">
+        <v>3</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="224"/>
+      <c r="D25" s="225"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="27" spans="1:7" ht="12" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14" thickBot="1">
+      <c r="A28" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="209" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="210"/>
+      <c r="E28" s="209" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="223"/>
+      <c r="G28" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14" thickBot="1">
+      <c r="A29" s="56">
+        <v>1</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="238" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="239"/>
+      <c r="E29" s="260" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="261"/>
+      <c r="G29" s="55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14" thickBot="1">
+      <c r="A32" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="209" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="210"/>
+      <c r="E32" s="209" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="223"/>
+      <c r="G32" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF008000"/>
@@ -10253,103 +11209,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="215"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="210" t="s">
+      <c r="F2" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="211"/>
+      <c r="G2" s="204"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="216"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="214" t="s">
+      <c r="F3" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="213"/>
+      <c r="G3" s="206"/>
     </row>
     <row r="4" spans="1:11" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="216"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="214"/>
-      <c r="G4" s="213"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="206"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="214" t="s">
+      <c r="C5" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="216"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="213"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="206"/>
     </row>
     <row r="6" spans="1:11" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="216"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="213"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="206"/>
     </row>
     <row r="7" spans="1:11" ht="13">
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="200"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="213"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="201"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="203"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="216"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="204"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="203"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="216"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1">
-      <c r="B10" s="205"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="207"/>
+      <c r="B10" s="218"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="220"/>
     </row>
     <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10571,10 +11527,10 @@
       <c r="B24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="196" t="s">
+      <c r="C24" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="197"/>
+      <c r="D24" s="208"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -10592,10 +11548,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="208" t="s">
+      <c r="C25" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="209"/>
+      <c r="D25" s="222"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -10609,10 +11565,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="241" t="s">
+      <c r="C26" s="252" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="242"/>
+      <c r="D26" s="253"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -10631,14 +11587,14 @@
       <c r="B29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="189" t="s">
+      <c r="C29" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="190"/>
-      <c r="E29" s="189" t="s">
+      <c r="D29" s="210"/>
+      <c r="E29" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="191"/>
+      <c r="F29" s="223"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -10655,14 +11611,14 @@
       <c r="B32" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="189" t="s">
+      <c r="C32" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="190"/>
-      <c r="E32" s="189" t="s">
+      <c r="D32" s="210"/>
+      <c r="E32" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="191"/>
+      <c r="F32" s="223"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -10672,20 +11628,29 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="239" t="s">
+      <c r="C33" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="240"/>
-      <c r="E33" s="241" t="s">
+      <c r="D33" s="251"/>
+      <c r="E33" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="242"/>
+      <c r="F33" s="253"/>
       <c r="G33" s="28" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -10698,395 +11663,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FF008000"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
-    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="12" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13">
-      <c r="B2" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="210" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="210" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="211"/>
-    </row>
-    <row r="3" spans="1:7" ht="13">
-      <c r="B3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="213"/>
-    </row>
-    <row r="4" spans="1:7" ht="13">
-      <c r="B4" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="214" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="216"/>
-      <c r="E4" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="214"/>
-      <c r="G4" s="213"/>
-    </row>
-    <row r="5" spans="1:7" ht="13">
-      <c r="B5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="214" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="216"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="213"/>
-    </row>
-    <row r="6" spans="1:7" ht="13">
-      <c r="B6" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="214" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="216"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="213"/>
-    </row>
-    <row r="7" spans="1:7" ht="13">
-      <c r="B7" s="198" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="200"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="201" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="203"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="204"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="203"/>
-    </row>
-    <row r="10" spans="1:7" ht="12" thickBot="1">
-      <c r="B10" s="205"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="207"/>
-    </row>
-    <row r="12" spans="1:7" ht="12" thickBot="1">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="15">
-        <f>A14+1</f>
-        <v>2</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" ht="12" thickBot="1">
-      <c r="A16" s="16">
-        <f t="shared" ref="A16" si="0">A15+1</f>
-        <v>3</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="18" spans="1:7" ht="12" thickBot="1">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="196" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="197"/>
-      <c r="E19" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13">
-      <c r="A20" s="14">
-        <v>1</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="208" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="209"/>
-      <c r="E20" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" ht="14" thickBot="1">
-      <c r="A21" s="16">
-        <v>2</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="239" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="240"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="23" spans="1:7" ht="12" thickBot="1">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14" thickBot="1">
-      <c r="A24" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="190"/>
-      <c r="E24" s="189" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="191"/>
-      <c r="G24" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14" thickBot="1">
-      <c r="A27" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="190"/>
-      <c r="E27" s="189" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="191"/>
-      <c r="G27" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14" thickBot="1">
-      <c r="A28" s="16">
-        <v>1</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="240"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="242"/>
-      <c r="G28" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/detail_design/db/MCS_Database_Design.xlsx
+++ b/doc/detail_design/db/MCS_Database_Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="818" activeTab="7"/>
+    <workbookView xWindow="1180" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="818" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="190">
   <si>
     <t>No</t>
   </si>
@@ -733,14 +733,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -749,14 +749,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -770,7 +770,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -785,7 +785,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -846,7 +846,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3312,7 +3312,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3641,7 +3641,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3649,7 +3649,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3836,36 +3836,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3873,12 +3885,6 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3915,37 +3921,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3978,6 +3972,30 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3990,11 +4008,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4013,24 +4031,6 @@
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="443">
@@ -5771,29 +5771,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="196"/>
-      <c r="R13" s="196"/>
-      <c r="S13" s="196"/>
-      <c r="T13" s="196"/>
-      <c r="U13" s="196"/>
-      <c r="V13" s="196"/>
-      <c r="W13" s="196"/>
-      <c r="X13" s="196"/>
-      <c r="Y13" s="196"/>
-      <c r="Z13" s="196"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="196"/>
-      <c r="AC13" s="196"/>
-      <c r="AD13" s="196"/>
-      <c r="AE13" s="196"/>
-      <c r="AF13" s="196"/>
-      <c r="AG13" s="196"/>
-      <c r="AH13" s="196"/>
-      <c r="AI13" s="196"/>
-      <c r="AJ13" s="196"/>
-      <c r="AK13" s="196"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="200"/>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="200"/>
+      <c r="S13" s="200"/>
+      <c r="T13" s="200"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="200"/>
+      <c r="W13" s="200"/>
+      <c r="X13" s="200"/>
+      <c r="Y13" s="200"/>
+      <c r="Z13" s="200"/>
+      <c r="AA13" s="200"/>
+      <c r="AB13" s="200"/>
+      <c r="AC13" s="200"/>
+      <c r="AD13" s="200"/>
+      <c r="AE13" s="200"/>
+      <c r="AF13" s="200"/>
+      <c r="AG13" s="200"/>
+      <c r="AH13" s="200"/>
+      <c r="AI13" s="200"/>
+      <c r="AJ13" s="200"/>
+      <c r="AK13" s="200"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5825,29 +5825,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="196"/>
-      <c r="P14" s="196"/>
-      <c r="Q14" s="196"/>
-      <c r="R14" s="196"/>
-      <c r="S14" s="196"/>
-      <c r="T14" s="196"/>
-      <c r="U14" s="196"/>
-      <c r="V14" s="196"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="196"/>
-      <c r="Z14" s="196"/>
-      <c r="AA14" s="196"/>
-      <c r="AB14" s="196"/>
-      <c r="AC14" s="196"/>
-      <c r="AD14" s="196"/>
-      <c r="AE14" s="196"/>
-      <c r="AF14" s="196"/>
-      <c r="AG14" s="196"/>
-      <c r="AH14" s="196"/>
-      <c r="AI14" s="196"/>
-      <c r="AJ14" s="196"/>
-      <c r="AK14" s="196"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
+      <c r="S14" s="200"/>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="200"/>
+      <c r="X14" s="200"/>
+      <c r="Y14" s="200"/>
+      <c r="Z14" s="200"/>
+      <c r="AA14" s="200"/>
+      <c r="AB14" s="200"/>
+      <c r="AC14" s="200"/>
+      <c r="AD14" s="200"/>
+      <c r="AE14" s="200"/>
+      <c r="AF14" s="200"/>
+      <c r="AG14" s="200"/>
+      <c r="AH14" s="200"/>
+      <c r="AI14" s="200"/>
+      <c r="AJ14" s="200"/>
+      <c r="AK14" s="200"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5875,43 +5875,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="197" t="s">
+      <c r="K15" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="197"/>
-      <c r="M15" s="197"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="197"/>
-      <c r="AD15" s="197"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="197"/>
-      <c r="AH15" s="197"/>
-      <c r="AI15" s="197"/>
-      <c r="AJ15" s="197"/>
-      <c r="AK15" s="197"/>
-      <c r="AL15" s="197"/>
-      <c r="AM15" s="197"/>
-      <c r="AN15" s="197"/>
-      <c r="AO15" s="197"/>
-      <c r="AP15" s="197"/>
-      <c r="AQ15" s="197"/>
-      <c r="AR15" s="197"/>
-      <c r="AS15" s="197"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="201"/>
+      <c r="P15" s="201"/>
+      <c r="Q15" s="201"/>
+      <c r="R15" s="201"/>
+      <c r="S15" s="201"/>
+      <c r="T15" s="201"/>
+      <c r="U15" s="201"/>
+      <c r="V15" s="201"/>
+      <c r="W15" s="201"/>
+      <c r="X15" s="201"/>
+      <c r="Y15" s="201"/>
+      <c r="Z15" s="201"/>
+      <c r="AA15" s="201"/>
+      <c r="AB15" s="201"/>
+      <c r="AC15" s="201"/>
+      <c r="AD15" s="201"/>
+      <c r="AE15" s="201"/>
+      <c r="AF15" s="201"/>
+      <c r="AG15" s="201"/>
+      <c r="AH15" s="201"/>
+      <c r="AI15" s="201"/>
+      <c r="AJ15" s="201"/>
+      <c r="AK15" s="201"/>
+      <c r="AL15" s="201"/>
+      <c r="AM15" s="201"/>
+      <c r="AN15" s="201"/>
+      <c r="AO15" s="201"/>
+      <c r="AP15" s="201"/>
+      <c r="AQ15" s="201"/>
+      <c r="AR15" s="201"/>
+      <c r="AS15" s="201"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5931,41 +5931,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="197"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="197"/>
-      <c r="V16" s="197"/>
-      <c r="W16" s="197"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="197"/>
-      <c r="Z16" s="197"/>
-      <c r="AA16" s="197"/>
-      <c r="AB16" s="197"/>
-      <c r="AC16" s="197"/>
-      <c r="AD16" s="197"/>
-      <c r="AE16" s="197"/>
-      <c r="AF16" s="197"/>
-      <c r="AG16" s="197"/>
-      <c r="AH16" s="197"/>
-      <c r="AI16" s="197"/>
-      <c r="AJ16" s="197"/>
-      <c r="AK16" s="197"/>
-      <c r="AL16" s="197"/>
-      <c r="AM16" s="197"/>
-      <c r="AN16" s="197"/>
-      <c r="AO16" s="197"/>
-      <c r="AP16" s="197"/>
-      <c r="AQ16" s="197"/>
-      <c r="AR16" s="197"/>
-      <c r="AS16" s="197"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="201"/>
+      <c r="O16" s="201"/>
+      <c r="P16" s="201"/>
+      <c r="Q16" s="201"/>
+      <c r="R16" s="201"/>
+      <c r="S16" s="201"/>
+      <c r="T16" s="201"/>
+      <c r="U16" s="201"/>
+      <c r="V16" s="201"/>
+      <c r="W16" s="201"/>
+      <c r="X16" s="201"/>
+      <c r="Y16" s="201"/>
+      <c r="Z16" s="201"/>
+      <c r="AA16" s="201"/>
+      <c r="AB16" s="201"/>
+      <c r="AC16" s="201"/>
+      <c r="AD16" s="201"/>
+      <c r="AE16" s="201"/>
+      <c r="AF16" s="201"/>
+      <c r="AG16" s="201"/>
+      <c r="AH16" s="201"/>
+      <c r="AI16" s="201"/>
+      <c r="AJ16" s="201"/>
+      <c r="AK16" s="201"/>
+      <c r="AL16" s="201"/>
+      <c r="AM16" s="201"/>
+      <c r="AN16" s="201"/>
+      <c r="AO16" s="201"/>
+      <c r="AP16" s="201"/>
+      <c r="AQ16" s="201"/>
+      <c r="AR16" s="201"/>
+      <c r="AS16" s="201"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6554,14 +6554,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="198">
+      <c r="AN27" s="202">
         <v>41922</v>
       </c>
-      <c r="AO27" s="198"/>
-      <c r="AP27" s="198"/>
-      <c r="AQ27" s="198"/>
-      <c r="AR27" s="198"/>
-      <c r="AS27" s="198"/>
+      <c r="AO27" s="202"/>
+      <c r="AP27" s="202"/>
+      <c r="AQ27" s="202"/>
+      <c r="AR27" s="202"/>
+      <c r="AS27" s="202"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -7051,105 +7051,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="201"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="200" t="s">
+      <c r="F2" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="204"/>
+      <c r="G2" s="226"/>
     </row>
     <row r="3" spans="1:7" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="231"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="202" t="s">
+      <c r="F3" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="206"/>
+      <c r="G3" s="228"/>
     </row>
     <row r="4" spans="1:7" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="203"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="206"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="228"/>
     </row>
     <row r="5" spans="1:7" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="229" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="203"/>
+      <c r="D5" s="231"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="206"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="228"/>
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="229" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="203"/>
+      <c r="D6" s="231"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="206"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="228"/>
     </row>
     <row r="7" spans="1:7" ht="13">
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="213"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="215"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="216" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="217"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="216"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="218"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1">
-      <c r="B10" s="218"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="220"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="222"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -7254,10 +7254,10 @@
       <c r="B19" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="207" t="s">
+      <c r="C19" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="208"/>
+      <c r="D19" s="212"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -7275,10 +7275,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="221" t="s">
+      <c r="C20" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="222"/>
+      <c r="D20" s="224"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -7292,10 +7292,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="250" t="s">
+      <c r="C21" s="256" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="251"/>
+      <c r="D21" s="257"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -7314,14 +7314,14 @@
       <c r="B24" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="209" t="s">
+      <c r="C24" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="210"/>
-      <c r="E24" s="209" t="s">
+      <c r="D24" s="205"/>
+      <c r="E24" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="223"/>
+      <c r="F24" s="206"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -7338,14 +7338,14 @@
       <c r="B27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="209" t="s">
+      <c r="C27" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="210"/>
-      <c r="E27" s="209" t="s">
+      <c r="D27" s="205"/>
+      <c r="E27" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="223"/>
+      <c r="F27" s="206"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -7355,23 +7355,14 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="251"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="253"/>
+      <c r="C28" s="256"/>
+      <c r="D28" s="257"/>
+      <c r="E28" s="258"/>
+      <c r="F28" s="259"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -7384,6 +7375,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7431,103 +7431,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="201"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="254" t="s">
+      <c r="F2" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="255"/>
+      <c r="G2" s="261"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="231"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="205" t="s">
+      <c r="F3" s="227" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="206"/>
+      <c r="G3" s="228"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="203"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="206"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="228"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="229" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="203"/>
+      <c r="D5" s="231"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="206"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="228"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="229" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="203"/>
+      <c r="D6" s="231"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="206"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="228"/>
     </row>
     <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="213"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="215"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="214"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="216"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="217"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="216"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="218"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="218"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="220"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="222"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="113"/>
@@ -7743,10 +7743,10 @@
       <c r="B21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="207" t="s">
+      <c r="C21" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="208"/>
+      <c r="D21" s="212"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -7770,10 +7770,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="221" t="s">
+      <c r="C22" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="222"/>
+      <c r="D22" s="224"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -7793,10 +7793,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="226" t="s">
+      <c r="C23" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="227"/>
+      <c r="D23" s="210"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -7814,10 +7814,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="250" t="s">
+      <c r="C24" s="256" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="251"/>
+      <c r="D24" s="257"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -7856,14 +7856,14 @@
       <c r="B27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="209" t="s">
+      <c r="C27" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="210"/>
-      <c r="E27" s="209" t="s">
+      <c r="D27" s="205"/>
+      <c r="E27" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="223"/>
+      <c r="F27" s="206"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -7900,14 +7900,14 @@
       <c r="B30" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="209" t="s">
+      <c r="C30" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="210"/>
-      <c r="E30" s="209" t="s">
+      <c r="D30" s="205"/>
+      <c r="E30" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="223"/>
+      <c r="F30" s="206"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -7923,14 +7923,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="221" t="s">
+      <c r="C31" s="223" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="222"/>
-      <c r="E31" s="226" t="s">
+      <c r="D31" s="224"/>
+      <c r="E31" s="209" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="227"/>
+      <c r="F31" s="210"/>
       <c r="G31" s="53" t="s">
         <v>78</v>
       </c>
@@ -7946,14 +7946,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="238" t="s">
+      <c r="C32" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="239"/>
-      <c r="E32" s="252" t="s">
+      <c r="D32" s="237"/>
+      <c r="E32" s="258" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="253"/>
+      <c r="F32" s="259"/>
       <c r="G32" s="55" t="s">
         <v>53</v>
       </c>
@@ -8006,6 +8006,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C31:D31"/>
@@ -8022,14 +8030,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8348,11 +8348,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
     </row>
     <row r="2" spans="1:3" ht="12" thickBot="1">
       <c r="A2" s="166" t="s">
@@ -8627,16 +8627,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="203" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <headerFooter>
@@ -8659,8 +8660,8 @@
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -8690,103 +8691,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="201"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="200" t="s">
+      <c r="F2" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="204"/>
+      <c r="G2" s="226"/>
     </row>
     <row r="3" spans="1:19" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="231"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="205" t="s">
+      <c r="F3" s="227" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="206"/>
+      <c r="G3" s="228"/>
     </row>
     <row r="4" spans="1:19" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="229" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="203"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="206"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="228"/>
     </row>
     <row r="5" spans="1:19" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="229" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="203"/>
+      <c r="D5" s="231"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="206"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="228"/>
     </row>
     <row r="6" spans="1:19" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="229" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="203"/>
+      <c r="D6" s="231"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="206"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="228"/>
     </row>
     <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="213"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="215"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="214"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="216"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="217"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="216"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="218"/>
     </row>
     <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="218"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="220"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="222"/>
     </row>
     <row r="12" spans="1:19" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8852,7 +8853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14">
+    <row r="14" spans="1:19" ht="17">
       <c r="A14" s="71">
         <v>1</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14">
+    <row r="15" spans="1:19" ht="17">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
@@ -9164,10 +9165,10 @@
       <c r="B27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="207" t="s">
+      <c r="C27" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="208"/>
+      <c r="D27" s="212"/>
       <c r="E27" s="34" t="s">
         <v>33</v>
       </c>
@@ -9185,10 +9186,10 @@
       <c r="B28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="221" t="s">
+      <c r="C28" s="223" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="222"/>
+      <c r="D28" s="224"/>
       <c r="E28" s="46" t="s">
         <v>3</v>
       </c>
@@ -9202,14 +9203,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="51"/>
-      <c r="C29" s="226" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="227"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="210"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="52" t="s">
-        <v>3</v>
-      </c>
+      <c r="F29" s="52"/>
       <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7" ht="13" customHeight="1" thickBot="1">
@@ -9217,8 +9214,8 @@
         <v>3</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="208"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
       <c r="G30" s="55"/>
@@ -9235,14 +9232,14 @@
       <c r="B33" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="209" t="s">
+      <c r="C33" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="210"/>
-      <c r="E33" s="209" t="s">
+      <c r="D33" s="205"/>
+      <c r="E33" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="223"/>
+      <c r="F33" s="206"/>
       <c r="G33" s="38" t="s">
         <v>38</v>
       </c>
@@ -9259,40 +9256,40 @@
       <c r="B36" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="209" t="s">
+      <c r="C36" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="210"/>
-      <c r="E36" s="209" t="s">
+      <c r="D36" s="205"/>
+      <c r="E36" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="223"/>
+      <c r="F36" s="206"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9356,108 +9353,108 @@
       <c r="B2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="201"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="200" t="s">
+      <c r="F2" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="204"/>
+      <c r="G2" s="226"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="A3" s="94"/>
       <c r="B3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="231"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="205" t="s">
+      <c r="F3" s="227" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="206"/>
+      <c r="G3" s="228"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="A4" s="94"/>
       <c r="B4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="229" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="203"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="206"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="228"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="A5" s="94"/>
       <c r="B5" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="228" t="s">
+      <c r="C5" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="229"/>
+      <c r="D5" s="243"/>
       <c r="E5" s="97"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="230"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="244"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="A6" s="94"/>
       <c r="B6" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="228" t="s">
+      <c r="C6" s="242" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="229"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="98"/>
-      <c r="F6" s="228"/>
-      <c r="G6" s="230"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="244"/>
     </row>
     <row r="7" spans="1:14" ht="13">
       <c r="A7" s="94"/>
-      <c r="B7" s="231" t="s">
+      <c r="B7" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="233"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="247"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="214"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="216"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="217"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="216"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="218"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="218"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="220"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="222"/>
     </row>
     <row r="12" spans="1:14" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9681,10 +9678,10 @@
       <c r="B22" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="207" t="s">
+      <c r="C22" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="208"/>
+      <c r="D22" s="212"/>
       <c r="E22" s="34" t="s">
         <v>33</v>
       </c>
@@ -9702,10 +9699,10 @@
       <c r="B23" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="238" t="s">
+      <c r="C23" s="236" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="239"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="58" t="s">
         <v>3</v>
       </c>
@@ -9726,14 +9723,14 @@
       <c r="B26" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="209" t="s">
+      <c r="C26" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="210"/>
-      <c r="E26" s="209" t="s">
+      <c r="D26" s="205"/>
+      <c r="E26" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="223"/>
+      <c r="F26" s="206"/>
       <c r="G26" s="38" t="s">
         <v>38</v>
       </c>
@@ -9743,10 +9740,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="144"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="243"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="241"/>
       <c r="G27" s="145"/>
     </row>
     <row r="28" spans="1:7" ht="14" thickBot="1">
@@ -9754,10 +9751,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="147"/>
-      <c r="C28" s="234"/>
-      <c r="D28" s="235"/>
-      <c r="E28" s="236"/>
-      <c r="F28" s="237"/>
+      <c r="C28" s="232"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="235"/>
       <c r="G28" s="148"/>
     </row>
     <row r="30" spans="1:7" ht="12" thickBot="1">
@@ -9772,20 +9769,31 @@
       <c r="B31" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="209" t="s">
+      <c r="C31" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="210"/>
-      <c r="E31" s="209" t="s">
+      <c r="D31" s="205"/>
+      <c r="E31" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="223"/>
+      <c r="F31" s="206"/>
       <c r="G31" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C28:D28"/>
@@ -9797,17 +9805,6 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9861,103 +9858,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="201"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="200" t="s">
+      <c r="F2" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="204"/>
+      <c r="G2" s="226"/>
     </row>
     <row r="3" spans="1:15" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="231"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="205" t="s">
+      <c r="F3" s="227" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="206"/>
+      <c r="G3" s="228"/>
     </row>
     <row r="4" spans="1:15" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="229" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="203"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="206"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="228"/>
     </row>
     <row r="5" spans="1:15" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="229" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="203"/>
+      <c r="D5" s="231"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="206"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="228"/>
     </row>
     <row r="6" spans="1:15" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="229" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="203"/>
+      <c r="D6" s="231"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="206"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="228"/>
     </row>
     <row r="7" spans="1:15" ht="13">
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="213"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="215"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="214"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="216"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="217"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="216"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="218"/>
     </row>
     <row r="10" spans="1:15" ht="12" thickBot="1">
-      <c r="B10" s="218"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="220"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="222"/>
     </row>
     <row r="12" spans="1:15" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10309,10 +10306,10 @@
       <c r="B24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="207" t="s">
+      <c r="C24" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="208"/>
+      <c r="D24" s="212"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -10330,10 +10327,10 @@
       <c r="B25" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="246" t="s">
+      <c r="C25" s="252" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="247"/>
+      <c r="D25" s="253"/>
       <c r="E25" s="90" t="s">
         <v>3</v>
       </c>
@@ -10451,14 +10448,14 @@
       <c r="B29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="209" t="s">
+      <c r="C29" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="210"/>
-      <c r="E29" s="209" t="s">
+      <c r="D29" s="205"/>
+      <c r="E29" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="223"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -10489,14 +10486,14 @@
         <v>1</v>
       </c>
       <c r="B30" s="19"/>
-      <c r="C30" s="221" t="s">
+      <c r="C30" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="222"/>
-      <c r="E30" s="244" t="s">
+      <c r="D30" s="224"/>
+      <c r="E30" s="250" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="245"/>
+      <c r="F30" s="251"/>
       <c r="G30" s="20" t="s">
         <v>152</v>
       </c>
@@ -10527,14 +10524,14 @@
         <v>2</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="226" t="s">
+      <c r="C31" s="209" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="227"/>
-      <c r="E31" s="226" t="s">
+      <c r="D31" s="210"/>
+      <c r="E31" s="209" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="227"/>
+      <c r="F31" s="210"/>
       <c r="G31" s="53" t="s">
         <v>152</v>
       </c>
@@ -10565,10 +10562,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="161"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="224"/>
-      <c r="F32" s="225"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="208"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="208"/>
       <c r="G32" s="162"/>
       <c r="I32" s="13">
         <v>8</v>
@@ -10604,29 +10601,20 @@
       <c r="B35" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="209" t="s">
+      <c r="C35" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="210"/>
-      <c r="E35" s="209" t="s">
+      <c r="D35" s="205"/>
+      <c r="E35" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="223"/>
+      <c r="F35" s="206"/>
       <c r="G35" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C35:D35"/>
@@ -10643,6 +10631,15 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10667,7 +10664,7 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -10695,103 +10692,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="201"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="200" t="s">
+      <c r="F2" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="204"/>
+      <c r="G2" s="226"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="231"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="205" t="s">
+      <c r="F3" s="227" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="206"/>
+      <c r="G3" s="228"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="229" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="203"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="206"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="228"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="229" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="203"/>
+      <c r="D5" s="231"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="206"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="228"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="229" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="203"/>
+      <c r="D6" s="231"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="206"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="228"/>
     </row>
     <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="213"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="215"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="214"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="216"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="217"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="216"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="218"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="218"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="220"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="222"/>
     </row>
     <row r="12" spans="1:14" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10890,7 +10887,7 @@
       <c r="B15" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="259" t="s">
+      <c r="C15" s="199" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="65" t="s">
@@ -10992,7 +10989,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="256" t="s">
+      <c r="B19" s="196" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="68" t="s">
@@ -11004,8 +11001,8 @@
       <c r="E19" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="257"/>
-      <c r="G19" s="258"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="198"/>
     </row>
     <row r="21" spans="1:7" ht="12" thickBot="1">
       <c r="A21" s="1" t="s">
@@ -11019,10 +11016,10 @@
       <c r="B22" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="207" t="s">
+      <c r="C22" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="208"/>
+      <c r="D22" s="212"/>
       <c r="E22" s="34" t="s">
         <v>33</v>
       </c>
@@ -11040,10 +11037,10 @@
       <c r="B23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="221" t="s">
+      <c r="C23" s="223" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="222"/>
+      <c r="D23" s="224"/>
       <c r="E23" s="46" t="s">
         <v>3</v>
       </c>
@@ -11057,8 +11054,8 @@
         <v>2</v>
       </c>
       <c r="B24" s="51"/>
-      <c r="C24" s="226"/>
-      <c r="D24" s="227"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="210"/>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="53"/>
@@ -11068,8 +11065,8 @@
         <v>3</v>
       </c>
       <c r="B25" s="54"/>
-      <c r="C25" s="224"/>
-      <c r="D25" s="225"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="208"/>
       <c r="E25" s="58"/>
       <c r="F25" s="58"/>
       <c r="G25" s="55"/>
@@ -11086,14 +11083,14 @@
       <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="209" t="s">
+      <c r="C28" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="210"/>
-      <c r="E28" s="209" t="s">
+      <c r="D28" s="205"/>
+      <c r="E28" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="223"/>
+      <c r="F28" s="206"/>
       <c r="G28" s="38" t="s">
         <v>38</v>
       </c>
@@ -11103,14 +11100,14 @@
         <v>1</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="C29" s="238" t="s">
+      <c r="C29" s="236" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="239"/>
-      <c r="E29" s="260" t="s">
+      <c r="D29" s="237"/>
+      <c r="E29" s="254" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="261"/>
+      <c r="F29" s="255"/>
       <c r="G29" s="55" t="s">
         <v>152</v>
       </c>
@@ -11127,20 +11124,32 @@
       <c r="B32" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="209" t="s">
+      <c r="C32" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="210"/>
-      <c r="E32" s="209" t="s">
+      <c r="D32" s="205"/>
+      <c r="E32" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="223"/>
+      <c r="F32" s="206"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C29:D29"/>
@@ -11151,19 +11160,8 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <headerFooter>
@@ -11209,103 +11207,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="201"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="200" t="s">
+      <c r="F2" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="204"/>
+      <c r="G2" s="226"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="231"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="202" t="s">
+      <c r="F3" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="206"/>
+      <c r="G3" s="228"/>
     </row>
     <row r="4" spans="1:11" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="203"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="206"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="228"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="229" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="203"/>
+      <c r="D5" s="231"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="206"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="228"/>
     </row>
     <row r="6" spans="1:11" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="229" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="203"/>
+      <c r="D6" s="231"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="206"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="228"/>
     </row>
     <row r="7" spans="1:11" ht="13">
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="213"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="215"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="214"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="216"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="217"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="216"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="218"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1">
-      <c r="B10" s="218"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="220"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="222"/>
     </row>
     <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -11527,10 +11525,10 @@
       <c r="B24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="207" t="s">
+      <c r="C24" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="208"/>
+      <c r="D24" s="212"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -11548,10 +11546,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="221" t="s">
+      <c r="C25" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="222"/>
+      <c r="D25" s="224"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -11565,10 +11563,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="252" t="s">
+      <c r="C26" s="258" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="253"/>
+      <c r="D26" s="259"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -11587,14 +11585,14 @@
       <c r="B29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="209" t="s">
+      <c r="C29" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="210"/>
-      <c r="E29" s="209" t="s">
+      <c r="D29" s="205"/>
+      <c r="E29" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="223"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -11611,14 +11609,14 @@
       <c r="B32" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="209" t="s">
+      <c r="C32" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="210"/>
-      <c r="E32" s="209" t="s">
+      <c r="D32" s="205"/>
+      <c r="E32" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="223"/>
+      <c r="F32" s="206"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -11628,29 +11626,20 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="250" t="s">
+      <c r="C33" s="256" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="251"/>
-      <c r="E33" s="252" t="s">
+      <c r="D33" s="257"/>
+      <c r="E33" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="253"/>
+      <c r="F33" s="259"/>
       <c r="G33" s="28" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -11663,6 +11652,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
